--- a/aws_allowlister/data/compliance_statuses.xlsx
+++ b/aws_allowlister/data/compliance_statuses.xlsx
@@ -1371,7 +1371,9 @@
         <v>1</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
       <c r="K31" t="b">
         <v>1</v>
       </c>
@@ -2131,7 +2133,9 @@
         <v>1</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
       <c r="K56" t="b">
         <v>1</v>
       </c>
@@ -3146,16 +3150,34 @@
           <t>Amazon Message Delivery Service</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="b">
+        <v>1</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5351,7 +5373,9 @@
         <v>1</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="b">
+        <v>1</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="b">
         <v>1</v>
@@ -5387,7 +5411,9 @@
         <v>1</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="b">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="b">
         <v>1</v>
@@ -7478,16 +7504,34 @@
           <t>Amazon Session Manager Message Gateway Service</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
+      <c r="C229" t="b">
+        <v>1</v>
+      </c>
+      <c r="D229" t="b">
+        <v>1</v>
+      </c>
+      <c r="E229" t="b">
+        <v>1</v>
+      </c>
+      <c r="F229" t="b">
+        <v>1</v>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="b">
+        <v>1</v>
+      </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="J229" t="b">
+        <v>1</v>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8361,7 +8405,9 @@
         <v>1</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="b">
+        <v>1</v>
+      </c>
       <c r="K256" t="b">
         <v>1</v>
       </c>

--- a/aws_allowlister/data/compliance_statuses.xlsx
+++ b/aws_allowlister/data/compliance_statuses.xlsx
@@ -1577,9 +1577,7 @@
       <c r="E39" t="b">
         <v>1</v>
       </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="b">
         <v>1</v>
       </c>
@@ -1719,9 +1717,7 @@
       <c r="E43" t="b">
         <v>1</v>
       </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="b">
         <v>1</v>
       </c>
@@ -1759,7 +1755,9 @@
       <c r="E44" t="b">
         <v>1</v>
       </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="b">
         <v>1</v>
@@ -2235,9 +2233,7 @@
       <c r="E60" t="b">
         <v>1</v>
       </c>
-      <c r="F60" t="b">
-        <v>1</v>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="b">
         <v>1</v>
       </c>
@@ -2275,9 +2271,7 @@
       <c r="E61" t="b">
         <v>1</v>
       </c>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="b">
         <v>1</v>
       </c>
@@ -2315,9 +2309,7 @@
       <c r="E62" t="b">
         <v>1</v>
       </c>
-      <c r="F62" t="b">
-        <v>1</v>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="b">
         <v>1</v>
       </c>
@@ -2491,9 +2483,7 @@
       <c r="E67" t="b">
         <v>1</v>
       </c>
-      <c r="F67" t="b">
-        <v>1</v>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="b">
         <v>1</v>
       </c>
@@ -3301,9 +3291,7 @@
       <c r="E94" t="b">
         <v>1</v>
       </c>
-      <c r="F94" t="b">
-        <v>1</v>
-      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="b">
         <v>1</v>
       </c>
@@ -5363,9 +5351,7 @@
       <c r="E160" t="b">
         <v>1</v>
       </c>
-      <c r="F160" t="b">
-        <v>1</v>
-      </c>
+      <c r="F160" t="inlineStr"/>
       <c r="G160" t="b">
         <v>1</v>
       </c>
@@ -5401,9 +5387,7 @@
       <c r="E161" t="b">
         <v>1</v>
       </c>
-      <c r="F161" t="b">
-        <v>1</v>
-      </c>
+      <c r="F161" t="inlineStr"/>
       <c r="G161" t="b">
         <v>1</v>
       </c>
@@ -5763,9 +5747,7 @@
       <c r="E175" t="b">
         <v>1</v>
       </c>
-      <c r="F175" t="b">
-        <v>1</v>
-      </c>
+      <c r="F175" t="inlineStr"/>
       <c r="G175" t="b">
         <v>1</v>
       </c>
@@ -6317,9 +6299,7 @@
       <c r="E194" t="b">
         <v>1</v>
       </c>
-      <c r="F194" t="b">
-        <v>1</v>
-      </c>
+      <c r="F194" t="inlineStr"/>
       <c r="G194" t="b">
         <v>1</v>
       </c>
@@ -7011,9 +6991,7 @@
       <c r="E215" t="b">
         <v>1</v>
       </c>
-      <c r="F215" t="b">
-        <v>1</v>
-      </c>
+      <c r="F215" t="inlineStr"/>
       <c r="G215" t="b">
         <v>1</v>
       </c>
@@ -7179,9 +7157,7 @@
       <c r="E220" t="b">
         <v>1</v>
       </c>
-      <c r="F220" t="b">
-        <v>1</v>
-      </c>
+      <c r="F220" t="inlineStr"/>
       <c r="G220" t="b">
         <v>1</v>
       </c>
@@ -7217,9 +7193,7 @@
       <c r="E221" t="b">
         <v>1</v>
       </c>
-      <c r="F221" t="b">
-        <v>1</v>
-      </c>
+      <c r="F221" t="inlineStr"/>
       <c r="G221" t="b">
         <v>1</v>
       </c>
@@ -7319,9 +7293,7 @@
       <c r="E224" t="b">
         <v>1</v>
       </c>
-      <c r="F224" t="b">
-        <v>1</v>
-      </c>
+      <c r="F224" t="inlineStr"/>
       <c r="G224" t="b">
         <v>1</v>
       </c>
@@ -7641,7 +7613,9 @@
       <c r="E233" t="b">
         <v>1</v>
       </c>
-      <c r="F233" t="inlineStr"/>
+      <c r="F233" t="b">
+        <v>1</v>
+      </c>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="b">
         <v>1</v>
@@ -8237,9 +8211,7 @@
       <c r="E251" t="b">
         <v>1</v>
       </c>
-      <c r="F251" t="b">
-        <v>1</v>
-      </c>
+      <c r="F251" t="inlineStr"/>
       <c r="G251" t="b">
         <v>1</v>
       </c>

--- a/aws_allowlister/data/compliance_statuses.xlsx
+++ b/aws_allowlister/data/compliance_statuses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L258"/>
+  <dimension ref="A1:P258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,25 +471,45 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>DoDCCSRG_IL2_EW</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DoDCCSRG_IL2_GC</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DoDCCSRG_IL4_GC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DoDCCSRG_IL5_GC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>HIPAA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>HITRUST</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>IRAP</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>OSPAR</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>FINMA</t>
         </is>
@@ -511,13 +531,17 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -540,6 +564,10 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -570,7 +598,9 @@
       <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
@@ -578,6 +608,16 @@
         <v>1</v>
       </c>
       <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -610,14 +650,22 @@
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -642,6 +690,10 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -664,6 +716,10 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -686,6 +742,10 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -709,15 +769,19 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -743,15 +807,19 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -784,7 +852,9 @@
       <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
@@ -792,6 +862,16 @@
         <v>1</v>
       </c>
       <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -816,6 +896,10 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -838,6 +922,10 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -868,7 +956,9 @@
       <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
@@ -876,6 +966,16 @@
         <v>1</v>
       </c>
       <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -900,6 +1000,10 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -919,13 +1023,17 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -948,6 +1056,10 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -978,7 +1090,9 @@
       <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
       <c r="J18" t="b">
         <v>1</v>
       </c>
@@ -986,6 +1100,16 @@
         <v>1</v>
       </c>
       <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1011,17 +1135,21 @@
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1046,6 +1174,10 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1068,6 +1200,10 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1092,6 +1228,10 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1122,7 +1262,9 @@
       <c r="H23" t="b">
         <v>1</v>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
       <c r="J23" t="b">
         <v>1</v>
       </c>
@@ -1130,6 +1272,16 @@
         <v>1</v>
       </c>
       <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1154,6 +1306,10 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1184,7 +1340,9 @@
       <c r="H25" t="b">
         <v>1</v>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
@@ -1192,6 +1350,16 @@
         <v>1</v>
       </c>
       <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1224,7 +1392,9 @@
       <c r="H26" t="b">
         <v>1</v>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
       <c r="J26" t="b">
         <v>1</v>
       </c>
@@ -1232,6 +1402,16 @@
         <v>1</v>
       </c>
       <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1251,13 +1431,17 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1275,13 +1459,17 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1312,7 +1500,9 @@
       <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
@@ -1320,6 +1510,16 @@
         <v>1</v>
       </c>
       <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1344,6 +1544,10 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1367,17 +1571,21 @@
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1402,6 +1610,10 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1432,14 +1644,22 @@
       <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1464,6 +1684,10 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1486,6 +1710,10 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1510,6 +1738,10 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1532,6 +1764,10 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1558,6 +1794,10 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1585,13 +1825,19 @@
         <v>1</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1616,6 +1862,10 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1646,7 +1896,9 @@
       <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
       <c r="J41" t="b">
         <v>1</v>
       </c>
@@ -1654,6 +1906,16 @@
         <v>1</v>
       </c>
       <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1686,7 +1948,9 @@
       <c r="H42" t="b">
         <v>1</v>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
       <c r="J42" t="b">
         <v>1</v>
       </c>
@@ -1694,6 +1958,16 @@
         <v>1</v>
       </c>
       <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1725,13 +1999,19 @@
         <v>1</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1762,7 +2042,9 @@
       <c r="H44" t="b">
         <v>1</v>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
@@ -1770,6 +2052,16 @@
         <v>1</v>
       </c>
       <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1794,6 +2086,10 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1816,6 +2112,10 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1846,7 +2146,9 @@
       <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
       <c r="J47" t="b">
         <v>1</v>
       </c>
@@ -1854,6 +2156,16 @@
         <v>1</v>
       </c>
       <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1886,7 +2198,9 @@
       <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
       <c r="J48" t="b">
         <v>1</v>
       </c>
@@ -1894,6 +2208,16 @@
         <v>1</v>
       </c>
       <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" t="b">
+        <v>1</v>
+      </c>
+      <c r="P48" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1918,6 +2242,10 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1948,7 +2276,9 @@
       <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
       <c r="J50" t="b">
         <v>1</v>
       </c>
@@ -1956,6 +2286,16 @@
         <v>1</v>
       </c>
       <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+      <c r="O50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P50" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1988,7 +2328,9 @@
       <c r="H51" t="b">
         <v>1</v>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
       <c r="J51" t="b">
         <v>1</v>
       </c>
@@ -1996,6 +2338,16 @@
         <v>1</v>
       </c>
       <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" t="b">
+        <v>1</v>
+      </c>
+      <c r="P51" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2028,7 +2380,9 @@
       <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
       <c r="J52" t="b">
         <v>1</v>
       </c>
@@ -2036,6 +2390,16 @@
         <v>1</v>
       </c>
       <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" t="b">
+        <v>1</v>
+      </c>
+      <c r="P52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2060,6 +2424,10 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2082,6 +2450,10 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2104,6 +2476,10 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2127,17 +2503,21 @@
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="b">
-        <v>1</v>
-      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="b">
-        <v>1</v>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56" t="b">
+        <v>1</v>
+      </c>
+      <c r="P56" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2164,6 +2544,10 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2188,6 +2572,10 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2212,6 +2600,10 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2241,13 +2633,19 @@
         <v>1</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="b">
-        <v>1</v>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+      <c r="O60" t="b">
+        <v>1</v>
+      </c>
+      <c r="P60" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2279,13 +2677,19 @@
         <v>1</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="b">
-        <v>1</v>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2317,13 +2721,19 @@
         <v>1</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="b">
-        <v>1</v>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+      <c r="P62" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2356,7 +2766,9 @@
       <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
       <c r="J63" t="b">
         <v>1</v>
       </c>
@@ -2364,6 +2776,16 @@
         <v>1</v>
       </c>
       <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63" t="b">
+        <v>1</v>
+      </c>
+      <c r="P63" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2389,15 +2811,19 @@
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="b">
-        <v>1</v>
-      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="b">
-        <v>1</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2422,6 +2848,10 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2452,7 +2882,9 @@
       <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
       <c r="J66" t="b">
         <v>1</v>
       </c>
@@ -2460,6 +2892,16 @@
         <v>1</v>
       </c>
       <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
+      <c r="O66" t="b">
+        <v>1</v>
+      </c>
+      <c r="P66" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2491,11 +2933,17 @@
         <v>1</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="b">
-        <v>1</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2520,6 +2968,10 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2546,6 +2998,10 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2569,15 +3025,19 @@
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="b">
-        <v>1</v>
-      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="b">
+        <v>1</v>
+      </c>
+      <c r="P70" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2602,6 +3062,10 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2632,7 +3096,9 @@
       <c r="H72" t="b">
         <v>1</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
       <c r="J72" t="b">
         <v>1</v>
       </c>
@@ -2640,6 +3106,16 @@
         <v>1</v>
       </c>
       <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72" t="b">
+        <v>1</v>
+      </c>
+      <c r="P72" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2664,6 +3140,10 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2686,6 +3166,10 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2708,6 +3192,10 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2730,6 +3218,10 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2752,6 +3244,10 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2776,6 +3272,10 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2800,6 +3300,10 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2822,6 +3326,10 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2852,7 +3360,9 @@
       <c r="H81" t="b">
         <v>1</v>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
       <c r="J81" t="b">
         <v>1</v>
       </c>
@@ -2860,6 +3370,16 @@
         <v>1</v>
       </c>
       <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="b">
+        <v>1</v>
+      </c>
+      <c r="O81" t="b">
+        <v>1</v>
+      </c>
+      <c r="P81" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2884,6 +3404,10 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2906,6 +3430,10 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2936,7 +3464,9 @@
       <c r="H84" t="b">
         <v>1</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
       <c r="J84" t="b">
         <v>1</v>
       </c>
@@ -2944,6 +3474,16 @@
         <v>1</v>
       </c>
       <c r="L84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84" t="b">
+        <v>1</v>
+      </c>
+      <c r="P84" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2976,7 +3516,9 @@
       <c r="H85" t="b">
         <v>1</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
       <c r="J85" t="b">
         <v>1</v>
       </c>
@@ -2984,6 +3526,16 @@
         <v>1</v>
       </c>
       <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="b">
+        <v>1</v>
+      </c>
+      <c r="O85" t="b">
+        <v>1</v>
+      </c>
+      <c r="P85" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3016,7 +3568,9 @@
       <c r="H86" t="b">
         <v>1</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
       <c r="J86" t="b">
         <v>1</v>
       </c>
@@ -3024,6 +3578,16 @@
         <v>1</v>
       </c>
       <c r="L86" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="b">
+        <v>1</v>
+      </c>
+      <c r="O86" t="b">
+        <v>1</v>
+      </c>
+      <c r="P86" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3056,7 +3620,9 @@
       <c r="H87" t="b">
         <v>1</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
       <c r="J87" t="b">
         <v>1</v>
       </c>
@@ -3064,6 +3630,16 @@
         <v>1</v>
       </c>
       <c r="L87" t="b">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="b">
+        <v>1</v>
+      </c>
+      <c r="O87" t="b">
+        <v>1</v>
+      </c>
+      <c r="P87" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3096,7 +3672,9 @@
       <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
       <c r="J88" t="b">
         <v>1</v>
       </c>
@@ -3104,6 +3682,16 @@
         <v>1</v>
       </c>
       <c r="L88" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="b">
+        <v>1</v>
+      </c>
+      <c r="O88" t="b">
+        <v>1</v>
+      </c>
+      <c r="P88" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3128,6 +3716,10 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3158,7 +3750,9 @@
       <c r="H90" t="b">
         <v>1</v>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
       <c r="J90" t="b">
         <v>1</v>
       </c>
@@ -3166,6 +3760,16 @@
         <v>1</v>
       </c>
       <c r="L90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90" t="b">
+        <v>1</v>
+      </c>
+      <c r="P90" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3198,7 +3802,9 @@
       <c r="H91" t="b">
         <v>1</v>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
       <c r="J91" t="b">
         <v>1</v>
       </c>
@@ -3206,6 +3812,16 @@
         <v>1</v>
       </c>
       <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91" t="b">
+        <v>1</v>
+      </c>
+      <c r="P91" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3230,6 +3846,10 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3260,7 +3880,9 @@
       <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
       <c r="J93" t="b">
         <v>1</v>
       </c>
@@ -3268,6 +3890,16 @@
         <v>1</v>
       </c>
       <c r="L93" t="b">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
+      <c r="O93" t="b">
+        <v>1</v>
+      </c>
+      <c r="P93" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3299,13 +3931,19 @@
         <v>1</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="b">
-        <v>1</v>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="b">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="b">
+        <v>1</v>
+      </c>
+      <c r="O94" t="b">
+        <v>1</v>
+      </c>
+      <c r="P94" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3330,6 +3968,10 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3360,7 +4002,9 @@
       <c r="H96" t="b">
         <v>1</v>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
       <c r="J96" t="b">
         <v>1</v>
       </c>
@@ -3368,6 +4012,16 @@
         <v>1</v>
       </c>
       <c r="L96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="b">
+        <v>1</v>
+      </c>
+      <c r="O96" t="b">
+        <v>1</v>
+      </c>
+      <c r="P96" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3400,7 +4054,9 @@
       <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
       <c r="J97" t="b">
         <v>1</v>
       </c>
@@ -3408,6 +4064,16 @@
         <v>1</v>
       </c>
       <c r="L97" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="b">
+        <v>1</v>
+      </c>
+      <c r="O97" t="b">
+        <v>1</v>
+      </c>
+      <c r="P97" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3440,7 +4106,9 @@
       <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
       <c r="J98" t="b">
         <v>1</v>
       </c>
@@ -3448,6 +4116,16 @@
         <v>1</v>
       </c>
       <c r="L98" t="b">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="b">
+        <v>1</v>
+      </c>
+      <c r="O98" t="b">
+        <v>1</v>
+      </c>
+      <c r="P98" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3480,7 +4158,9 @@
       <c r="H99" t="b">
         <v>1</v>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
       <c r="J99" t="b">
         <v>1</v>
       </c>
@@ -3488,6 +4168,16 @@
         <v>1</v>
       </c>
       <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="b">
+        <v>1</v>
+      </c>
+      <c r="O99" t="b">
+        <v>1</v>
+      </c>
+      <c r="P99" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3520,7 +4210,9 @@
       <c r="H100" t="b">
         <v>1</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
       <c r="J100" t="b">
         <v>1</v>
       </c>
@@ -3528,6 +4220,16 @@
         <v>1</v>
       </c>
       <c r="L100" t="b">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="b">
+        <v>1</v>
+      </c>
+      <c r="O100" t="b">
+        <v>1</v>
+      </c>
+      <c r="P100" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3552,6 +4254,10 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3574,6 +4280,10 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3596,6 +4306,10 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3618,6 +4332,10 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3640,6 +4358,10 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3662,6 +4384,10 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3692,7 +4418,9 @@
       <c r="H107" t="b">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
       <c r="J107" t="b">
         <v>1</v>
       </c>
@@ -3700,6 +4428,16 @@
         <v>1</v>
       </c>
       <c r="L107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="b">
+        <v>1</v>
+      </c>
+      <c r="O107" t="b">
+        <v>1</v>
+      </c>
+      <c r="P107" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3732,12 +4470,24 @@
       <c r="H108" t="b">
         <v>1</v>
       </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
       <c r="J108" t="b">
         <v>1</v>
       </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
       <c r="L108" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="b">
+        <v>1</v>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3770,7 +4520,9 @@
       <c r="H109" t="b">
         <v>1</v>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
       <c r="J109" t="b">
         <v>1</v>
       </c>
@@ -3778,6 +4530,16 @@
         <v>1</v>
       </c>
       <c r="L109" t="b">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="b">
+        <v>1</v>
+      </c>
+      <c r="O109" t="b">
+        <v>1</v>
+      </c>
+      <c r="P109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3810,7 +4572,9 @@
       <c r="H110" t="b">
         <v>1</v>
       </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
       <c r="J110" t="b">
         <v>1</v>
       </c>
@@ -3818,6 +4582,16 @@
         <v>1</v>
       </c>
       <c r="L110" t="b">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="b">
+        <v>1</v>
+      </c>
+      <c r="O110" t="b">
+        <v>1</v>
+      </c>
+      <c r="P110" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3843,17 +4617,21 @@
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
-      <c r="H111" t="b">
-        <v>1</v>
-      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="b">
-        <v>1</v>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="b">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="b">
+        <v>1</v>
+      </c>
+      <c r="O111" t="b">
+        <v>1</v>
+      </c>
+      <c r="P111" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3879,15 +4657,19 @@
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="b">
-        <v>1</v>
-      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="b">
+        <v>1</v>
+      </c>
+      <c r="P112" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3912,6 +4694,10 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3935,15 +4721,19 @@
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="b">
-        <v>1</v>
-      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="b">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="b">
+        <v>1</v>
+      </c>
+      <c r="P114" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3969,17 +4759,21 @@
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="b">
-        <v>1</v>
-      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="b">
-        <v>1</v>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="b">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="b">
+        <v>1</v>
+      </c>
+      <c r="O115" t="b">
+        <v>1</v>
+      </c>
+      <c r="P115" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4004,6 +4798,10 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4026,6 +4824,10 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4056,7 +4858,9 @@
       <c r="H118" t="b">
         <v>1</v>
       </c>
-      <c r="I118" t="inlineStr"/>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
       <c r="J118" t="b">
         <v>1</v>
       </c>
@@ -4064,6 +4868,16 @@
         <v>1</v>
       </c>
       <c r="L118" t="b">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="b">
+        <v>1</v>
+      </c>
+      <c r="O118" t="b">
+        <v>1</v>
+      </c>
+      <c r="P118" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4089,15 +4903,19 @@
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="b">
-        <v>1</v>
-      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="b">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="b">
+        <v>1</v>
+      </c>
+      <c r="P119" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4130,7 +4948,9 @@
       <c r="H120" t="b">
         <v>1</v>
       </c>
-      <c r="I120" t="inlineStr"/>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
       <c r="J120" t="b">
         <v>1</v>
       </c>
@@ -4138,6 +4958,16 @@
         <v>1</v>
       </c>
       <c r="L120" t="b">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="b">
+        <v>1</v>
+      </c>
+      <c r="O120" t="b">
+        <v>1</v>
+      </c>
+      <c r="P120" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4170,7 +5000,9 @@
       <c r="H121" t="b">
         <v>1</v>
       </c>
-      <c r="I121" t="inlineStr"/>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
       <c r="J121" t="b">
         <v>1</v>
       </c>
@@ -4178,6 +5010,16 @@
         <v>1</v>
       </c>
       <c r="L121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="b">
+        <v>1</v>
+      </c>
+      <c r="O121" t="b">
+        <v>1</v>
+      </c>
+      <c r="P121" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4206,6 +5048,10 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4228,6 +5074,10 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4258,7 +5108,9 @@
       <c r="H124" t="b">
         <v>1</v>
       </c>
-      <c r="I124" t="inlineStr"/>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
       <c r="J124" t="b">
         <v>1</v>
       </c>
@@ -4266,6 +5118,16 @@
         <v>1</v>
       </c>
       <c r="L124" t="b">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="b">
+        <v>1</v>
+      </c>
+      <c r="O124" t="b">
+        <v>1</v>
+      </c>
+      <c r="P124" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4291,13 +5153,17 @@
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="b">
-        <v>1</v>
-      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="b">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4322,6 +5188,10 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4352,7 +5222,9 @@
       <c r="H127" t="b">
         <v>1</v>
       </c>
-      <c r="I127" t="inlineStr"/>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
       <c r="J127" t="b">
         <v>1</v>
       </c>
@@ -4360,6 +5232,16 @@
         <v>1</v>
       </c>
       <c r="L127" t="b">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="b">
+        <v>1</v>
+      </c>
+      <c r="O127" t="b">
+        <v>1</v>
+      </c>
+      <c r="P127" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4384,6 +5266,10 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4406,6 +5292,10 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4436,12 +5326,24 @@
       <c r="H130" t="b">
         <v>1</v>
       </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="b">
+        <v>1</v>
+      </c>
       <c r="K130" t="b">
         <v>1</v>
       </c>
       <c r="L130" t="b">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="b">
+        <v>1</v>
+      </c>
+      <c r="P130" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4474,12 +5376,24 @@
       <c r="H131" t="b">
         <v>1</v>
       </c>
-      <c r="I131" t="inlineStr"/>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
       <c r="J131" t="b">
         <v>1</v>
       </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
       <c r="L131" t="b">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="b">
+        <v>1</v>
+      </c>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4512,7 +5426,9 @@
       <c r="H132" t="b">
         <v>1</v>
       </c>
-      <c r="I132" t="inlineStr"/>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
       <c r="J132" t="b">
         <v>1</v>
       </c>
@@ -4520,6 +5436,16 @@
         <v>1</v>
       </c>
       <c r="L132" t="b">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="b">
+        <v>1</v>
+      </c>
+      <c r="O132" t="b">
+        <v>1</v>
+      </c>
+      <c r="P132" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4552,7 +5478,9 @@
       <c r="H133" t="b">
         <v>1</v>
       </c>
-      <c r="I133" t="inlineStr"/>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
       <c r="J133" t="b">
         <v>1</v>
       </c>
@@ -4560,6 +5488,16 @@
         <v>1</v>
       </c>
       <c r="L133" t="b">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="b">
+        <v>1</v>
+      </c>
+      <c r="O133" t="b">
+        <v>1</v>
+      </c>
+      <c r="P133" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4586,6 +5524,10 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4610,6 +5552,10 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4640,7 +5586,9 @@
       <c r="H136" t="b">
         <v>1</v>
       </c>
-      <c r="I136" t="inlineStr"/>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
       <c r="J136" t="b">
         <v>1</v>
       </c>
@@ -4648,6 +5596,16 @@
         <v>1</v>
       </c>
       <c r="L136" t="b">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="b">
+        <v>1</v>
+      </c>
+      <c r="O136" t="b">
+        <v>1</v>
+      </c>
+      <c r="P136" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4673,13 +5631,17 @@
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
-      <c r="H137" t="b">
-        <v>1</v>
-      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="b">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4704,6 +5666,10 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4726,6 +5692,10 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4748,6 +5718,10 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4778,7 +5752,9 @@
       <c r="H141" t="b">
         <v>1</v>
       </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
       <c r="J141" t="b">
         <v>1</v>
       </c>
@@ -4786,6 +5762,16 @@
         <v>1</v>
       </c>
       <c r="L141" t="b">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="b">
+        <v>1</v>
+      </c>
+      <c r="O141" t="b">
+        <v>1</v>
+      </c>
+      <c r="P141" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4810,6 +5796,10 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4832,6 +5822,10 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4854,6 +5848,10 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4874,10 +5872,14 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="b">
+        <v>1</v>
+      </c>
+      <c r="P145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4899,13 +5901,17 @@
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
-      <c r="H146" t="b">
-        <v>1</v>
-      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="b">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4936,7 +5942,9 @@
       <c r="H147" t="b">
         <v>1</v>
       </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
       <c r="J147" t="b">
         <v>1</v>
       </c>
@@ -4944,6 +5952,16 @@
         <v>1</v>
       </c>
       <c r="L147" t="b">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="b">
+        <v>1</v>
+      </c>
+      <c r="O147" t="b">
+        <v>1</v>
+      </c>
+      <c r="P147" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4969,15 +5987,19 @@
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
-      <c r="H148" t="b">
-        <v>1</v>
-      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="b">
-        <v>1</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="b">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="b">
+        <v>1</v>
+      </c>
+      <c r="P148" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5003,15 +6025,19 @@
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
-      <c r="H149" t="b">
-        <v>1</v>
-      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="b">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="b">
+        <v>1</v>
+      </c>
+      <c r="P149" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5044,7 +6070,9 @@
       <c r="H150" t="b">
         <v>1</v>
       </c>
-      <c r="I150" t="inlineStr"/>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
       <c r="J150" t="b">
         <v>1</v>
       </c>
@@ -5052,6 +6080,16 @@
         <v>1</v>
       </c>
       <c r="L150" t="b">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="b">
+        <v>1</v>
+      </c>
+      <c r="O150" t="b">
+        <v>1</v>
+      </c>
+      <c r="P150" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5084,7 +6122,9 @@
       <c r="H151" t="b">
         <v>1</v>
       </c>
-      <c r="I151" t="inlineStr"/>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
       <c r="J151" t="b">
         <v>1</v>
       </c>
@@ -5092,6 +6132,16 @@
         <v>1</v>
       </c>
       <c r="L151" t="b">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="b">
+        <v>1</v>
+      </c>
+      <c r="O151" t="b">
+        <v>1</v>
+      </c>
+      <c r="P151" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5124,7 +6174,9 @@
       <c r="H152" t="b">
         <v>1</v>
       </c>
-      <c r="I152" t="inlineStr"/>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
       <c r="J152" t="b">
         <v>1</v>
       </c>
@@ -5132,6 +6184,16 @@
         <v>1</v>
       </c>
       <c r="L152" t="b">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="b">
+        <v>1</v>
+      </c>
+      <c r="O152" t="b">
+        <v>1</v>
+      </c>
+      <c r="P152" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5156,6 +6218,10 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5179,15 +6245,19 @@
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
-      <c r="H154" t="b">
-        <v>1</v>
-      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="b">
         <v>1</v>
       </c>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5215,15 +6285,27 @@
       <c r="G155" t="b">
         <v>1</v>
       </c>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
+      <c r="H155" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
       <c r="J155" t="b">
         <v>1</v>
       </c>
       <c r="K155" t="b">
         <v>1</v>
       </c>
-      <c r="L155" t="b">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="b">
+        <v>1</v>
+      </c>
+      <c r="O155" t="b">
+        <v>1</v>
+      </c>
+      <c r="P155" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5248,6 +6330,10 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5278,12 +6364,24 @@
       <c r="H157" t="b">
         <v>1</v>
       </c>
-      <c r="I157" t="inlineStr"/>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
       <c r="J157" t="b">
         <v>1</v>
       </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
       <c r="L157" t="b">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="b">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5308,6 +6406,10 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5330,6 +6432,10 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5359,13 +6465,19 @@
         <v>1</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="b">
-        <v>1</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="b">
         <v>1</v>
       </c>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="b">
+        <v>1</v>
+      </c>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5395,11 +6507,17 @@
         <v>1</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="b">
-        <v>1</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="b">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="b">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5424,6 +6542,10 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5446,6 +6568,10 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5468,6 +6594,10 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5491,15 +6621,19 @@
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="b">
-        <v>1</v>
-      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="b">
-        <v>1</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="b">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="b">
+        <v>1</v>
+      </c>
+      <c r="P165" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5532,12 +6666,24 @@
       <c r="H166" t="b">
         <v>1</v>
       </c>
-      <c r="I166" t="inlineStr"/>
+      <c r="I166" t="b">
+        <v>1</v>
+      </c>
       <c r="J166" t="b">
         <v>1</v>
       </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
       <c r="L166" t="b">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="b">
+        <v>1</v>
+      </c>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5563,13 +6709,17 @@
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="b">
-        <v>1</v>
-      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="b">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5594,6 +6744,10 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5616,6 +6770,10 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5638,6 +6796,10 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5660,6 +6822,10 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5682,6 +6848,10 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5704,6 +6874,10 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5726,6 +6900,10 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5755,11 +6933,17 @@
         <v>1</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="b">
-        <v>1</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="b">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="b">
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5784,6 +6968,10 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5807,17 +6995,21 @@
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
-      <c r="H177" t="b">
-        <v>1</v>
-      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="b">
-        <v>1</v>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="b">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="b">
+        <v>1</v>
+      </c>
+      <c r="O177" t="b">
+        <v>1</v>
+      </c>
+      <c r="P177" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5843,15 +7035,19 @@
       </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
-      <c r="H178" t="b">
-        <v>1</v>
-      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="b">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="b">
+        <v>1</v>
+      </c>
+      <c r="P178" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5876,6 +7072,10 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5898,6 +7098,10 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5921,15 +7125,19 @@
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="b">
-        <v>1</v>
-      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="b">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="b">
+        <v>1</v>
+      </c>
+      <c r="P181" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5955,15 +7163,19 @@
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
-      <c r="H182" t="b">
-        <v>1</v>
-      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="b">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="b">
+        <v>1</v>
+      </c>
+      <c r="P182" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5996,7 +7208,9 @@
       <c r="H183" t="b">
         <v>1</v>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
       <c r="J183" t="b">
         <v>1</v>
       </c>
@@ -6004,6 +7218,16 @@
         <v>1</v>
       </c>
       <c r="L183" t="b">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="b">
+        <v>1</v>
+      </c>
+      <c r="O183" t="b">
+        <v>1</v>
+      </c>
+      <c r="P183" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6029,15 +7253,19 @@
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
-      <c r="H184" t="b">
-        <v>1</v>
-      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="b">
-        <v>1</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="b">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="b">
+        <v>1</v>
+      </c>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6062,6 +7290,10 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6085,15 +7317,19 @@
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="b">
-        <v>1</v>
-      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="b">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="b">
+        <v>1</v>
+      </c>
+      <c r="P186" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6118,6 +7354,10 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6148,7 +7388,9 @@
       <c r="H188" t="b">
         <v>1</v>
       </c>
-      <c r="I188" t="inlineStr"/>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
       <c r="J188" t="b">
         <v>1</v>
       </c>
@@ -6156,6 +7398,16 @@
         <v>1</v>
       </c>
       <c r="L188" t="b">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="b">
+        <v>1</v>
+      </c>
+      <c r="O188" t="b">
+        <v>1</v>
+      </c>
+      <c r="P188" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6180,6 +7432,10 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6202,6 +7458,10 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6224,6 +7484,10 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6246,6 +7510,10 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6269,15 +7537,19 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="b">
-        <v>1</v>
-      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="b">
         <v>1</v>
       </c>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6307,13 +7579,19 @@
         <v>1</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="b">
-        <v>1</v>
-      </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="b">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="b">
+        <v>1</v>
+      </c>
+      <c r="O194" t="b">
+        <v>1</v>
+      </c>
+      <c r="P194" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6338,6 +7616,10 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6368,7 +7650,9 @@
       <c r="H196" t="b">
         <v>1</v>
       </c>
-      <c r="I196" t="inlineStr"/>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
       <c r="J196" t="b">
         <v>1</v>
       </c>
@@ -6376,6 +7660,16 @@
         <v>1</v>
       </c>
       <c r="L196" t="b">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="b">
+        <v>1</v>
+      </c>
+      <c r="O196" t="b">
+        <v>1</v>
+      </c>
+      <c r="P196" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6408,7 +7702,9 @@
       <c r="H197" t="b">
         <v>1</v>
       </c>
-      <c r="I197" t="inlineStr"/>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
       <c r="J197" t="b">
         <v>1</v>
       </c>
@@ -6416,6 +7712,16 @@
         <v>1</v>
       </c>
       <c r="L197" t="b">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="b">
+        <v>1</v>
+      </c>
+      <c r="O197" t="b">
+        <v>1</v>
+      </c>
+      <c r="P197" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6448,7 +7754,9 @@
       <c r="H198" t="b">
         <v>1</v>
       </c>
-      <c r="I198" t="inlineStr"/>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
       <c r="J198" t="b">
         <v>1</v>
       </c>
@@ -6456,6 +7764,16 @@
         <v>1</v>
       </c>
       <c r="L198" t="b">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="b">
+        <v>1</v>
+      </c>
+      <c r="O198" t="b">
+        <v>1</v>
+      </c>
+      <c r="P198" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6488,7 +7806,9 @@
       <c r="H199" t="b">
         <v>1</v>
       </c>
-      <c r="I199" t="inlineStr"/>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
       <c r="J199" t="b">
         <v>1</v>
       </c>
@@ -6496,6 +7816,16 @@
         <v>1</v>
       </c>
       <c r="L199" t="b">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="b">
+        <v>1</v>
+      </c>
+      <c r="O199" t="b">
+        <v>1</v>
+      </c>
+      <c r="P199" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6520,6 +7850,10 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6550,7 +7884,9 @@
       <c r="H201" t="b">
         <v>1</v>
       </c>
-      <c r="I201" t="inlineStr"/>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
       <c r="J201" t="b">
         <v>1</v>
       </c>
@@ -6558,6 +7894,16 @@
         <v>1</v>
       </c>
       <c r="L201" t="b">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="b">
+        <v>1</v>
+      </c>
+      <c r="O201" t="b">
+        <v>1</v>
+      </c>
+      <c r="P201" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6582,6 +7928,10 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6608,10 +7958,14 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="b">
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="b">
+        <v>1</v>
+      </c>
+      <c r="P203" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6637,15 +7991,19 @@
       </c>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
-      <c r="H204" t="b">
-        <v>1</v>
-      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="b">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="b">
+        <v>1</v>
+      </c>
+      <c r="P204" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6678,7 +8036,9 @@
       <c r="H205" t="b">
         <v>1</v>
       </c>
-      <c r="I205" t="inlineStr"/>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
       <c r="J205" t="b">
         <v>1</v>
       </c>
@@ -6686,6 +8046,16 @@
         <v>1</v>
       </c>
       <c r="L205" t="b">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="b">
+        <v>1</v>
+      </c>
+      <c r="O205" t="b">
+        <v>1</v>
+      </c>
+      <c r="P205" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6718,7 +8088,9 @@
       <c r="H206" t="b">
         <v>1</v>
       </c>
-      <c r="I206" t="inlineStr"/>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
       <c r="J206" t="b">
         <v>1</v>
       </c>
@@ -6726,6 +8098,16 @@
         <v>1</v>
       </c>
       <c r="L206" t="b">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="b">
+        <v>1</v>
+      </c>
+      <c r="O206" t="b">
+        <v>1</v>
+      </c>
+      <c r="P206" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6752,6 +8134,10 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6782,7 +8168,9 @@
       <c r="H208" t="b">
         <v>1</v>
       </c>
-      <c r="I208" t="inlineStr"/>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
       <c r="J208" t="b">
         <v>1</v>
       </c>
@@ -6790,6 +8178,16 @@
         <v>1</v>
       </c>
       <c r="L208" t="b">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="b">
+        <v>1</v>
+      </c>
+      <c r="O208" t="b">
+        <v>1</v>
+      </c>
+      <c r="P208" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6814,6 +8212,10 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6844,7 +8246,9 @@
       <c r="H210" t="b">
         <v>1</v>
       </c>
-      <c r="I210" t="inlineStr"/>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
       <c r="J210" t="b">
         <v>1</v>
       </c>
@@ -6852,6 +8256,16 @@
         <v>1</v>
       </c>
       <c r="L210" t="b">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="b">
+        <v>1</v>
+      </c>
+      <c r="O210" t="b">
+        <v>1</v>
+      </c>
+      <c r="P210" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6876,6 +8290,10 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6898,6 +8316,10 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6924,10 +8346,14 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="b">
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr"/>
+      <c r="O213" t="b">
+        <v>1</v>
+      </c>
+      <c r="P213" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6960,7 +8386,9 @@
       <c r="H214" t="b">
         <v>1</v>
       </c>
-      <c r="I214" t="inlineStr"/>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
       <c r="J214" t="b">
         <v>1</v>
       </c>
@@ -6968,6 +8396,16 @@
         <v>1</v>
       </c>
       <c r="L214" t="b">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="b">
+        <v>1</v>
+      </c>
+      <c r="O214" t="b">
+        <v>1</v>
+      </c>
+      <c r="P214" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6999,13 +8437,19 @@
         <v>1</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="b">
-        <v>1</v>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="b">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="b">
+        <v>1</v>
+      </c>
+      <c r="O215" t="b">
+        <v>1</v>
+      </c>
+      <c r="P215" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7038,7 +8482,9 @@
       <c r="H216" t="b">
         <v>1</v>
       </c>
-      <c r="I216" t="inlineStr"/>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
       <c r="J216" t="b">
         <v>1</v>
       </c>
@@ -7046,6 +8492,16 @@
         <v>1</v>
       </c>
       <c r="L216" t="b">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="b">
+        <v>1</v>
+      </c>
+      <c r="O216" t="b">
+        <v>1</v>
+      </c>
+      <c r="P216" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7078,7 +8534,9 @@
       <c r="H217" t="b">
         <v>1</v>
       </c>
-      <c r="I217" t="inlineStr"/>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
       <c r="J217" t="b">
         <v>1</v>
       </c>
@@ -7086,6 +8544,16 @@
         <v>1</v>
       </c>
       <c r="L217" t="b">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="b">
+        <v>1</v>
+      </c>
+      <c r="O217" t="b">
+        <v>1</v>
+      </c>
+      <c r="P217" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7109,13 +8577,17 @@
       </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="b">
-        <v>1</v>
-      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="b">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7138,6 +8610,10 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7165,13 +8641,19 @@
         <v>1</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="b">
-        <v>1</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="b">
         <v>1</v>
       </c>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="b">
+        <v>1</v>
+      </c>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7201,13 +8683,19 @@
         <v>1</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="b">
-        <v>1</v>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="b">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="b">
+        <v>1</v>
+      </c>
+      <c r="O221" t="b">
+        <v>1</v>
+      </c>
+      <c r="P221" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7232,6 +8720,10 @@
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7262,7 +8754,9 @@
       <c r="H223" t="b">
         <v>1</v>
       </c>
-      <c r="I223" t="inlineStr"/>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
       <c r="J223" t="b">
         <v>1</v>
       </c>
@@ -7270,6 +8764,16 @@
         <v>1</v>
       </c>
       <c r="L223" t="b">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="b">
+        <v>1</v>
+      </c>
+      <c r="O223" t="b">
+        <v>1</v>
+      </c>
+      <c r="P223" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7297,13 +8801,19 @@
       <c r="G224" t="b">
         <v>1</v>
       </c>
-      <c r="H224" t="inlineStr"/>
+      <c r="H224" t="b">
+        <v>1</v>
+      </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="b">
-        <v>1</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="b">
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="b">
+        <v>1</v>
+      </c>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7336,12 +8846,24 @@
       <c r="H225" t="b">
         <v>1</v>
       </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="b">
+        <v>1</v>
+      </c>
       <c r="K225" t="b">
         <v>1</v>
       </c>
       <c r="L225" t="b">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="b">
+        <v>1</v>
+      </c>
+      <c r="P225" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7374,7 +8896,9 @@
       <c r="H226" t="b">
         <v>1</v>
       </c>
-      <c r="I226" t="inlineStr"/>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
       <c r="J226" t="b">
         <v>1</v>
       </c>
@@ -7382,6 +8906,16 @@
         <v>1</v>
       </c>
       <c r="L226" t="b">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="b">
+        <v>1</v>
+      </c>
+      <c r="O226" t="b">
+        <v>1</v>
+      </c>
+      <c r="P226" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7414,7 +8948,9 @@
       <c r="H227" t="b">
         <v>1</v>
       </c>
-      <c r="I227" t="inlineStr"/>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
       <c r="J227" t="b">
         <v>1</v>
       </c>
@@ -7422,6 +8958,16 @@
         <v>1</v>
       </c>
       <c r="L227" t="b">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="b">
+        <v>1</v>
+      </c>
+      <c r="O227" t="b">
+        <v>1</v>
+      </c>
+      <c r="P227" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7454,7 +9000,9 @@
       <c r="H228" t="b">
         <v>1</v>
       </c>
-      <c r="I228" t="inlineStr"/>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
       <c r="J228" t="b">
         <v>1</v>
       </c>
@@ -7462,6 +9010,16 @@
         <v>1</v>
       </c>
       <c r="L228" t="b">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="b">
+        <v>1</v>
+      </c>
+      <c r="O228" t="b">
+        <v>1</v>
+      </c>
+      <c r="P228" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7494,7 +9052,9 @@
       <c r="H229" t="b">
         <v>1</v>
       </c>
-      <c r="I229" t="inlineStr"/>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
       <c r="J229" t="b">
         <v>1</v>
       </c>
@@ -7502,6 +9062,16 @@
         <v>1</v>
       </c>
       <c r="L229" t="b">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="b">
+        <v>1</v>
+      </c>
+      <c r="O229" t="b">
+        <v>1</v>
+      </c>
+      <c r="P229" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7528,6 +9098,10 @@
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7552,6 +9126,10 @@
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7582,7 +9160,9 @@
       <c r="H232" t="b">
         <v>1</v>
       </c>
-      <c r="I232" t="inlineStr"/>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
       <c r="J232" t="b">
         <v>1</v>
       </c>
@@ -7590,6 +9170,16 @@
         <v>1</v>
       </c>
       <c r="L232" t="b">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="b">
+        <v>1</v>
+      </c>
+      <c r="O232" t="b">
+        <v>1</v>
+      </c>
+      <c r="P232" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7617,17 +9207,23 @@
         <v>1</v>
       </c>
       <c r="G233" t="inlineStr"/>
-      <c r="H233" t="b">
-        <v>1</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="b">
-        <v>1</v>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="b">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="b">
+        <v>1</v>
+      </c>
+      <c r="O233" t="b">
+        <v>1</v>
+      </c>
+      <c r="P233" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7660,7 +9256,9 @@
       <c r="H234" t="b">
         <v>1</v>
       </c>
-      <c r="I234" t="inlineStr"/>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
       <c r="J234" t="b">
         <v>1</v>
       </c>
@@ -7668,6 +9266,16 @@
         <v>1</v>
       </c>
       <c r="L234" t="b">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="b">
+        <v>1</v>
+      </c>
+      <c r="O234" t="b">
+        <v>1</v>
+      </c>
+      <c r="P234" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7692,6 +9300,10 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7722,7 +9334,9 @@
       <c r="H236" t="b">
         <v>1</v>
       </c>
-      <c r="I236" t="inlineStr"/>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
       <c r="J236" t="b">
         <v>1</v>
       </c>
@@ -7730,6 +9344,16 @@
         <v>1</v>
       </c>
       <c r="L236" t="b">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="b">
+        <v>1</v>
+      </c>
+      <c r="O236" t="b">
+        <v>1</v>
+      </c>
+      <c r="P236" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7762,7 +9386,9 @@
       <c r="H237" t="b">
         <v>1</v>
       </c>
-      <c r="I237" t="inlineStr"/>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
       <c r="J237" t="b">
         <v>1</v>
       </c>
@@ -7770,6 +9396,16 @@
         <v>1</v>
       </c>
       <c r="L237" t="b">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="b">
+        <v>1</v>
+      </c>
+      <c r="O237" t="b">
+        <v>1</v>
+      </c>
+      <c r="P237" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7794,6 +9430,10 @@
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="inlineStr"/>
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7816,6 +9456,10 @@
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="inlineStr"/>
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7839,15 +9483,19 @@
       </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
-      <c r="H240" t="b">
-        <v>1</v>
-      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="b">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="inlineStr"/>
+      <c r="O240" t="b">
+        <v>1</v>
+      </c>
+      <c r="P240" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7871,13 +9519,17 @@
       </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
-      <c r="H241" t="b">
-        <v>1</v>
-      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="b">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7908,7 +9560,9 @@
       <c r="H242" t="b">
         <v>1</v>
       </c>
-      <c r="I242" t="inlineStr"/>
+      <c r="I242" t="b">
+        <v>1</v>
+      </c>
       <c r="J242" t="b">
         <v>1</v>
       </c>
@@ -7916,6 +9570,16 @@
         <v>1</v>
       </c>
       <c r="L242" t="b">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="b">
+        <v>1</v>
+      </c>
+      <c r="O242" t="b">
+        <v>1</v>
+      </c>
+      <c r="P242" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7941,17 +9605,21 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="b">
-        <v>1</v>
-      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="b">
-        <v>1</v>
-      </c>
-      <c r="K243" t="b">
-        <v>1</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="b">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="b">
+        <v>1</v>
+      </c>
+      <c r="O243" t="b">
+        <v>1</v>
+      </c>
+      <c r="P243" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7984,7 +9652,9 @@
       <c r="H244" t="b">
         <v>1</v>
       </c>
-      <c r="I244" t="inlineStr"/>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
       <c r="J244" t="b">
         <v>1</v>
       </c>
@@ -7992,6 +9662,16 @@
         <v>1</v>
       </c>
       <c r="L244" t="b">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="b">
+        <v>1</v>
+      </c>
+      <c r="O244" t="b">
+        <v>1</v>
+      </c>
+      <c r="P244" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8019,13 +9699,25 @@
       <c r="G245" t="b">
         <v>1</v>
       </c>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
+      <c r="H245" t="b">
+        <v>1</v>
+      </c>
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
       <c r="J245" t="b">
         <v>1</v>
       </c>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="b">
+        <v>1</v>
+      </c>
       <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="b">
+        <v>1</v>
+      </c>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8056,7 +9748,9 @@
       <c r="H246" t="b">
         <v>1</v>
       </c>
-      <c r="I246" t="inlineStr"/>
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
       <c r="J246" t="b">
         <v>1</v>
       </c>
@@ -8064,6 +9758,16 @@
         <v>1</v>
       </c>
       <c r="L246" t="b">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="b">
+        <v>1</v>
+      </c>
+      <c r="O246" t="b">
+        <v>1</v>
+      </c>
+      <c r="P246" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8096,7 +9800,9 @@
       <c r="H247" t="b">
         <v>1</v>
       </c>
-      <c r="I247" t="inlineStr"/>
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
       <c r="J247" t="b">
         <v>1</v>
       </c>
@@ -8104,6 +9810,16 @@
         <v>1</v>
       </c>
       <c r="L247" t="b">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="b">
+        <v>1</v>
+      </c>
+      <c r="O247" t="b">
+        <v>1</v>
+      </c>
+      <c r="P247" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8136,7 +9852,9 @@
       <c r="H248" t="b">
         <v>1</v>
       </c>
-      <c r="I248" t="inlineStr"/>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
       <c r="J248" t="b">
         <v>1</v>
       </c>
@@ -8144,6 +9862,16 @@
         <v>1</v>
       </c>
       <c r="L248" t="b">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="b">
+        <v>1</v>
+      </c>
+      <c r="O248" t="b">
+        <v>1</v>
+      </c>
+      <c r="P248" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8168,6 +9896,10 @@
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8190,6 +9922,10 @@
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="inlineStr"/>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8219,13 +9955,19 @@
         <v>1</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="b">
-        <v>1</v>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="b">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="b">
+        <v>1</v>
+      </c>
+      <c r="O251" t="b">
+        <v>1</v>
+      </c>
+      <c r="P251" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8251,13 +9993,17 @@
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="b">
-        <v>1</v>
-      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="b">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr"/>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8285,7 +10031,11 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="b">
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="inlineStr"/>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8310,6 +10060,10 @@
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="inlineStr"/>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8340,7 +10094,9 @@
       <c r="H255" t="b">
         <v>1</v>
       </c>
-      <c r="I255" t="inlineStr"/>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
       <c r="J255" t="b">
         <v>1</v>
       </c>
@@ -8348,6 +10104,16 @@
         <v>1</v>
       </c>
       <c r="L255" t="b">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="b">
+        <v>1</v>
+      </c>
+      <c r="O255" t="b">
+        <v>1</v>
+      </c>
+      <c r="P255" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8373,17 +10139,21 @@
       </c>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
-      <c r="H256" t="b">
-        <v>1</v>
-      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="b">
-        <v>1</v>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="b">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="b">
+        <v>1</v>
+      </c>
+      <c r="O256" t="b">
+        <v>1</v>
+      </c>
+      <c r="P256" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8401,13 +10171,17 @@
       </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
-      <c r="H257" t="b">
-        <v>1</v>
-      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="b">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="inlineStr"/>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8421,13 +10195,17 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
-      <c r="H258" t="b">
-        <v>1</v>
-      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="b">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/aws_allowlister/data/compliance_statuses.xlsx
+++ b/aws_allowlister/data/compliance_statuses.xlsx
@@ -555,10 +555,16 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -653,8 +659,12 @@
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
@@ -1647,8 +1657,12 @@
       <c r="I33" t="b">
         <v>1</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
       <c r="L33" t="b">
         <v>1</v>
       </c>
@@ -9211,8 +9225,12 @@
       <c r="I233" t="b">
         <v>1</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="b">
+        <v>1</v>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
       <c r="L233" t="b">
         <v>1</v>
       </c>

--- a/aws_allowlister/data/compliance_statuses.xlsx
+++ b/aws_allowlister/data/compliance_statuses.xlsx
@@ -1610,20 +1610,34 @@
           <t>AWS Backup storage</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">

--- a/aws_allowlister/data/compliance_statuses.xlsx
+++ b/aws_allowlister/data/compliance_statuses.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P262"/>
+  <dimension ref="A1:P264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1068,7 +1068,9 @@
       <c r="D17" t="b">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1346,7 +1348,9 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1617,10 +1621,18 @@
       <c r="E32" t="b">
         <v>1</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="b">
@@ -1657,10 +1669,18 @@
       <c r="E33" t="b">
         <v>1</v>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="b">
@@ -1796,7 +1816,9 @@
       <c r="D37" t="b">
         <v>1</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -2567,10 +2589,18 @@
       <c r="E57" t="b">
         <v>1</v>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="b">
@@ -2691,14 +2721,18 @@
       <c r="E61" t="b">
         <v>1</v>
       </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="b">
@@ -2735,14 +2769,18 @@
       <c r="E62" t="b">
         <v>1</v>
       </c>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="b">
@@ -2779,14 +2817,18 @@
       <c r="E63" t="b">
         <v>1</v>
       </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="b">
@@ -3977,7 +4019,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Amazon Elastic Container Service for Kubernetes</t>
+          <t>Amazon Elastic Kubernetes Service</t>
         </is>
       </c>
       <c r="C95" t="b">
@@ -3989,19 +4031,21 @@
       <c r="E95" t="b">
         <v>1</v>
       </c>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="b">
+        <v>1</v>
+      </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="b">
-        <v>1</v>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="b">
         <v>1</v>
@@ -4664,52 +4708,38 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>fms</t>
+          <t>fis</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AWS Firewall Manager</t>
-        </is>
-      </c>
-      <c r="C112" t="b">
-        <v>1</v>
-      </c>
-      <c r="D112" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Fault Injection Simulator</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="b">
-        <v>1</v>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
-      <c r="N112" t="b">
-        <v>1</v>
-      </c>
-      <c r="O112" t="b">
-        <v>1</v>
-      </c>
-      <c r="P112" t="b">
-        <v>1</v>
-      </c>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>fms</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Amazon Forecast</t>
+          <t>AWS Firewall Manager</t>
         </is>
       </c>
       <c r="C113" t="b">
@@ -4731,7 +4761,9 @@
         <v>1</v>
       </c>
       <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
+      <c r="N113" t="b">
+        <v>1</v>
+      </c>
       <c r="O113" t="b">
         <v>1</v>
       </c>
@@ -4742,76 +4774,76 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>frauddetector</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Amazon Fraud Detector</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+          <t>Amazon Forecast</t>
+        </is>
+      </c>
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="b">
+        <v>1</v>
+      </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
+      <c r="O114" t="b">
+        <v>1</v>
+      </c>
+      <c r="P114" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>freertos</t>
+          <t>frauddetector</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Amazon FreeRTOS</t>
-        </is>
-      </c>
-      <c r="C115" t="b">
-        <v>1</v>
-      </c>
-      <c r="D115" t="b">
-        <v>1</v>
-      </c>
-      <c r="E115" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon Fraud Detector</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="b">
-        <v>1</v>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
-      <c r="O115" t="b">
-        <v>1</v>
-      </c>
-      <c r="P115" t="b">
-        <v>1</v>
-      </c>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>fsx</t>
+          <t>freertos</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Amazon FSx</t>
+          <t>Amazon FreeRTOS</t>
         </is>
       </c>
       <c r="C116" t="b">
@@ -4833,9 +4865,7 @@
         <v>1</v>
       </c>
       <c r="M116" t="inlineStr"/>
-      <c r="N116" t="b">
-        <v>1</v>
-      </c>
+      <c r="N116" t="inlineStr"/>
       <c r="O116" t="b">
         <v>1</v>
       </c>
@@ -4846,38 +4876,52 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>gamelift</t>
+          <t>fsx</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Amazon GameLift</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+          <t>Amazon FSx</t>
+        </is>
+      </c>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="b">
+        <v>1</v>
+      </c>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
+      <c r="N117" t="b">
+        <v>1</v>
+      </c>
+      <c r="O117" t="b">
+        <v>1</v>
+      </c>
+      <c r="P117" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>geo</t>
+          <t>gamelift</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Amazon Location</t>
+          <t>Amazon GameLift</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4898,64 +4942,38 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>glacier</t>
+          <t>geo</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Amazon Glacier</t>
-        </is>
-      </c>
-      <c r="C119" t="b">
-        <v>1</v>
-      </c>
-      <c r="D119" t="b">
-        <v>1</v>
-      </c>
-      <c r="E119" t="b">
-        <v>1</v>
-      </c>
-      <c r="F119" t="b">
-        <v>1</v>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="b">
-        <v>1</v>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="b">
-        <v>1</v>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon Location</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
-      <c r="N119" t="b">
-        <v>1</v>
-      </c>
-      <c r="O119" t="b">
-        <v>1</v>
-      </c>
-      <c r="P119" t="b">
-        <v>1</v>
-      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>globalaccelerator</t>
+          <t>glacier</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AWS Global Accelerator</t>
+          <t>Amazon Glacier</t>
         </is>
       </c>
       <c r="C120" t="b">
@@ -4967,17 +4985,31 @@
       <c r="E120" t="b">
         <v>1</v>
       </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
       <c r="L120" t="b">
         <v>1</v>
       </c>
       <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
+      <c r="N120" t="b">
+        <v>1</v>
+      </c>
       <c r="O120" t="b">
         <v>1</v>
       </c>
@@ -4988,12 +5020,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>glue</t>
+          <t>globalaccelerator</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AWS Glue</t>
+          <t>AWS Global Accelerator</t>
         </is>
       </c>
       <c r="C121" t="b">
@@ -5005,31 +5037,17 @@
       <c r="E121" t="b">
         <v>1</v>
       </c>
-      <c r="F121" t="b">
-        <v>1</v>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="b">
-        <v>1</v>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="b">
-        <v>1</v>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="b">
         <v>1</v>
       </c>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="b">
-        <v>1</v>
-      </c>
+      <c r="N121" t="inlineStr"/>
       <c r="O121" t="b">
         <v>1</v>
       </c>
@@ -5040,81 +5058,95 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>grafana</t>
+          <t>glue</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Amazon Managed Service for Grafana</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+          <t>AWS Glue</t>
+        </is>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="b">
+        <v>1</v>
+      </c>
       <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
+      <c r="N122" t="b">
+        <v>1</v>
+      </c>
+      <c r="O122" t="b">
+        <v>1</v>
+      </c>
+      <c r="P122" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>greengrass</t>
+          <t>grafana</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AWS IoT Greengrass V2</t>
-        </is>
-      </c>
-      <c r="C123" t="b">
-        <v>1</v>
-      </c>
-      <c r="D123" t="b">
-        <v>1</v>
-      </c>
-      <c r="E123" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon Managed Service for Grafana</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="b">
-        <v>1</v>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
-      <c r="N123" t="b">
-        <v>1</v>
-      </c>
-      <c r="O123" t="b">
-        <v>1</v>
-      </c>
-      <c r="P123" t="b">
-        <v>1</v>
-      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>groundstation</t>
+          <t>greengrass</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AWS Ground Station</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>AWS IoT Greengrass V2</t>
+        </is>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
       <c r="D124" t="b">
         <v>1</v>
       </c>
@@ -5127,26 +5159,38 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="b">
+        <v>1</v>
+      </c>
       <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
+      <c r="N124" t="b">
+        <v>1</v>
+      </c>
+      <c r="O124" t="b">
+        <v>1</v>
+      </c>
+      <c r="P124" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>groundtruthlabeling</t>
+          <t>groundstation</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Amazon GroundTruth Labeling</t>
+          <t>AWS Ground Station</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
@@ -5162,64 +5206,38 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>guardduty</t>
+          <t>groundtruthlabeling</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Amazon GuardDuty</t>
-        </is>
-      </c>
-      <c r="C126" t="b">
-        <v>1</v>
-      </c>
-      <c r="D126" t="b">
-        <v>1</v>
-      </c>
-      <c r="E126" t="b">
-        <v>1</v>
-      </c>
-      <c r="F126" t="b">
-        <v>1</v>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="b">
-        <v>1</v>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="b">
-        <v>1</v>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon GroundTruth Labeling</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
-      <c r="N126" t="b">
-        <v>1</v>
-      </c>
-      <c r="O126" t="b">
-        <v>1</v>
-      </c>
-      <c r="P126" t="b">
-        <v>1</v>
-      </c>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>guardduty</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AWS Health APIs and Notifications</t>
+          <t>Amazon GuardDuty</t>
         </is>
       </c>
       <c r="C127" t="b">
@@ -5231,18 +5249,34 @@
       <c r="E127" t="b">
         <v>1</v>
       </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
       <c r="L127" t="b">
         <v>1</v>
       </c>
       <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
+      <c r="N127" t="b">
+        <v>1</v>
+      </c>
+      <c r="O127" t="b">
+        <v>1</v>
+      </c>
       <c r="P127" t="b">
         <v>1</v>
       </c>
@@ -5250,90 +5284,76 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>honeycode</t>
+          <t>health</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Amazon Honeycode</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
+          <t>AWS Health APIs and Notifications</t>
+        </is>
+      </c>
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="b">
+        <v>1</v>
+      </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
+      <c r="P128" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>iam</t>
+          <t>healthlake</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Identity And Access Management</t>
-        </is>
-      </c>
-      <c r="C129" t="b">
-        <v>1</v>
-      </c>
-      <c r="D129" t="b">
-        <v>1</v>
-      </c>
-      <c r="E129" t="b">
-        <v>1</v>
-      </c>
-      <c r="F129" t="b">
-        <v>1</v>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="b">
-        <v>1</v>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="b">
-        <v>1</v>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon HealthLake</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="b">
         <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
-      <c r="N129" t="b">
-        <v>1</v>
-      </c>
-      <c r="O129" t="b">
-        <v>1</v>
-      </c>
-      <c r="P129" t="b">
-        <v>1</v>
-      </c>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>identitystore</t>
+          <t>honeycode</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>AWS Identity Store</t>
+          <t>Amazon Honeycode</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5354,138 +5374,116 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>imagebuilder</t>
+          <t>iam</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Amazon EC2 Image Builder</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+          <t>Identity And Access Management</t>
+        </is>
+      </c>
+      <c r="C131" t="b">
+        <v>1</v>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="b">
+        <v>1</v>
+      </c>
       <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
+      <c r="N131" t="b">
+        <v>1</v>
+      </c>
+      <c r="O131" t="b">
+        <v>1</v>
+      </c>
+      <c r="P131" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>importexport</t>
+          <t>identitystore</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>AWS Import Export Disk Service</t>
-        </is>
-      </c>
-      <c r="C132" t="b">
-        <v>1</v>
-      </c>
-      <c r="D132" t="b">
-        <v>1</v>
-      </c>
-      <c r="E132" t="b">
-        <v>1</v>
-      </c>
-      <c r="F132" t="b">
-        <v>1</v>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="b">
-        <v>1</v>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="b">
-        <v>1</v>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Identity Store</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
-      <c r="O132" t="b">
-        <v>1</v>
-      </c>
-      <c r="P132" t="b">
-        <v>1</v>
-      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>inspector</t>
+          <t>imagebuilder</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Amazon Inspector</t>
-        </is>
-      </c>
-      <c r="C133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D133" t="b">
-        <v>1</v>
-      </c>
-      <c r="E133" t="b">
-        <v>1</v>
-      </c>
-      <c r="F133" t="b">
-        <v>1</v>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="b">
-        <v>1</v>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="b">
-        <v>1</v>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon EC2 Image Builder</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
-      <c r="N133" t="b">
-        <v>1</v>
-      </c>
+      <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
-      <c r="P133" t="b">
-        <v>1</v>
-      </c>
+      <c r="P133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>iot</t>
+          <t>importexport</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>AWS IoT</t>
+          <t>AWS Import Export Disk Service</t>
         </is>
       </c>
       <c r="C134" t="b">
@@ -5519,9 +5517,7 @@
         <v>1</v>
       </c>
       <c r="M134" t="inlineStr"/>
-      <c r="N134" t="b">
-        <v>1</v>
-      </c>
+      <c r="N134" t="inlineStr"/>
       <c r="O134" t="b">
         <v>1</v>
       </c>
@@ -5532,12 +5528,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>iot-device-tester</t>
+          <t>inspector</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AWS IoT Device Tester</t>
+          <t>Amazon Inspector</t>
         </is>
       </c>
       <c r="C135" t="b">
@@ -5574,9 +5570,7 @@
       <c r="N135" t="b">
         <v>1</v>
       </c>
-      <c r="O135" t="b">
-        <v>1</v>
-      </c>
+      <c r="O135" t="inlineStr"/>
       <c r="P135" t="b">
         <v>1</v>
       </c>
@@ -5584,128 +5578,148 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>iot1click</t>
+          <t>iot</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>AWS IoT 1-Click</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
+          <t>AWS IoT</t>
+        </is>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="b">
+        <v>1</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="b">
+        <v>1</v>
+      </c>
       <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
+      <c r="N136" t="b">
+        <v>1</v>
+      </c>
+      <c r="O136" t="b">
+        <v>1</v>
+      </c>
+      <c r="P136" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>iotanalytics</t>
+          <t>iot-device-tester</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>AWS IoT Analytics</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
+          <t>AWS IoT Device Tester</t>
+        </is>
+      </c>
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="b">
+        <v>1</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="b">
+        <v>1</v>
+      </c>
       <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
+      <c r="N137" t="b">
+        <v>1</v>
+      </c>
+      <c r="O137" t="b">
+        <v>1</v>
+      </c>
+      <c r="P137" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>iotdeviceadvisor</t>
+          <t>iot1click</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>AWS IoT Core Device Advisor</t>
-        </is>
-      </c>
-      <c r="C138" t="b">
-        <v>1</v>
-      </c>
-      <c r="D138" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS IoT 1-Click</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="b">
         <v>1</v>
       </c>
-      <c r="F138" t="b">
-        <v>1</v>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="b">
-        <v>1</v>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="b">
-        <v>1</v>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="b">
-        <v>1</v>
-      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
-      <c r="N138" t="b">
-        <v>1</v>
-      </c>
-      <c r="O138" t="b">
-        <v>1</v>
-      </c>
-      <c r="P138" t="b">
-        <v>1</v>
-      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>iotevents</t>
+          <t>iotanalytics</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>AWS IoT Events</t>
-        </is>
-      </c>
-      <c r="C139" t="b">
-        <v>1</v>
-      </c>
-      <c r="D139" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS IoT Analytics</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="b">
         <v>1</v>
       </c>
@@ -5715,77 +5729,109 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="b">
-        <v>1</v>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
-      <c r="P139" t="b">
-        <v>1</v>
-      </c>
+      <c r="P139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>iotfleethub</t>
+          <t>iotdeviceadvisor</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Fleet Hub for AWS IoT Device Management</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+          <t>AWS IoT Core Device Advisor</t>
+        </is>
+      </c>
+      <c r="C140" t="b">
+        <v>1</v>
+      </c>
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="b">
+        <v>1</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="b">
+        <v>1</v>
+      </c>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
+      <c r="N140" t="b">
+        <v>1</v>
+      </c>
+      <c r="O140" t="b">
+        <v>1</v>
+      </c>
+      <c r="P140" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>iotsitewise</t>
+          <t>iotevents</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AWS IoT SiteWise</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+          <t>AWS IoT Events</t>
+        </is>
+      </c>
+      <c r="C141" t="b">
+        <v>1</v>
+      </c>
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="b">
+        <v>1</v>
+      </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
+      <c r="P141" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>iotthingsgraph</t>
+          <t>iotfleethub</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AWS IoT Things Graph</t>
+          <t>Fleet Hub for AWS IoT Device Management</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5806,64 +5852,38 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>iotwireless</t>
+          <t>iotsitewise</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AWS IoT Core for LoRaWAN</t>
-        </is>
-      </c>
-      <c r="C143" t="b">
-        <v>1</v>
-      </c>
-      <c r="D143" t="b">
-        <v>1</v>
-      </c>
-      <c r="E143" t="b">
-        <v>1</v>
-      </c>
-      <c r="F143" t="b">
-        <v>1</v>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="b">
-        <v>1</v>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="b">
-        <v>1</v>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS IoT SiteWise</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="b">
-        <v>1</v>
-      </c>
-      <c r="O143" t="b">
-        <v>1</v>
-      </c>
-      <c r="P143" t="b">
-        <v>1</v>
-      </c>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>iq</t>
+          <t>iotthingsgraph</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AWS IQ</t>
+          <t>AWS IoT Things Graph</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5884,38 +5904,64 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>iq-permission</t>
+          <t>iotwireless</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AWS IQ Permissions</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+          <t>AWS IoT Core for LoRaWAN</t>
+        </is>
+      </c>
+      <c r="C145" t="b">
+        <v>1</v>
+      </c>
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="b">
+        <v>1</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="b">
+        <v>1</v>
+      </c>
       <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
+      <c r="N145" t="b">
+        <v>1</v>
+      </c>
+      <c r="O145" t="b">
+        <v>1</v>
+      </c>
+      <c r="P145" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ivs</t>
+          <t>iq</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Amazon Interactive Video Service</t>
+          <t>AWS IQ</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5936,68 +5982,50 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>kafka</t>
+          <t>iq-permission</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Amazon Managed Streaming for Kafka</t>
-        </is>
-      </c>
-      <c r="C147" t="b">
-        <v>1</v>
-      </c>
-      <c r="D147" t="b">
-        <v>1</v>
-      </c>
-      <c r="E147" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS IQ Permissions</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="b">
-        <v>1</v>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
-      <c r="O147" t="b">
-        <v>1</v>
-      </c>
-      <c r="P147" t="b">
-        <v>1</v>
-      </c>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>kendra</t>
+          <t>ivs</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Amazon Kendra</t>
+          <t>Amazon Interactive Video Service</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="b">
-        <v>1</v>
-      </c>
-      <c r="E148" t="b">
-        <v>1</v>
-      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="b">
-        <v>1</v>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -6006,12 +6034,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>kinesis</t>
+          <t>kafka</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Amazon Kinesis</t>
+          <t>Amazon Managed Streaming for Kafka</t>
         </is>
       </c>
       <c r="C149" t="b">
@@ -6023,31 +6051,17 @@
       <c r="E149" t="b">
         <v>1</v>
       </c>
-      <c r="F149" t="b">
-        <v>1</v>
-      </c>
-      <c r="G149" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" t="b">
-        <v>1</v>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="b">
-        <v>1</v>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="b">
         <v>1</v>
       </c>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="b">
-        <v>1</v>
-      </c>
+      <c r="N149" t="inlineStr"/>
       <c r="O149" t="b">
         <v>1</v>
       </c>
@@ -6058,17 +6072,15 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>kinesisanalytics</t>
+          <t>kendra</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Amazon Kinesis Analytics V2</t>
-        </is>
-      </c>
-      <c r="C150" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon Kendra</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="b">
         <v>1</v>
       </c>
@@ -6086,22 +6098,18 @@
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="b">
-        <v>1</v>
-      </c>
-      <c r="P150" t="b">
-        <v>1</v>
-      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>kinesisvideo</t>
+          <t>kinesis</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Amazon Kinesis Video Streams</t>
+          <t>Amazon Kinesis</t>
         </is>
       </c>
       <c r="C151" t="b">
@@ -6113,17 +6121,31 @@
       <c r="E151" t="b">
         <v>1</v>
       </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="b">
+        <v>1</v>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" t="b">
+        <v>1</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
       <c r="L151" t="b">
         <v>1</v>
       </c>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="b">
+        <v>1</v>
+      </c>
       <c r="O151" t="b">
         <v>1</v>
       </c>
@@ -6134,12 +6156,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>kms</t>
+          <t>kinesisanalytics</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AWS Key Management Service</t>
+          <t>Amazon Kinesis Analytics V2</t>
         </is>
       </c>
       <c r="C152" t="b">
@@ -6151,31 +6173,17 @@
       <c r="E152" t="b">
         <v>1</v>
       </c>
-      <c r="F152" t="b">
-        <v>1</v>
-      </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" t="b">
-        <v>1</v>
-      </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" t="b">
-        <v>1</v>
-      </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="b">
         <v>1</v>
       </c>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="b">
-        <v>1</v>
-      </c>
+      <c r="N152" t="inlineStr"/>
       <c r="O152" t="b">
         <v>1</v>
       </c>
@@ -6186,12 +6194,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>lakeformation</t>
+          <t>kinesisvideo</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AWS Lake Formation</t>
+          <t>Amazon Kinesis Video Streams</t>
         </is>
       </c>
       <c r="C153" t="b">
@@ -6203,31 +6211,17 @@
       <c r="E153" t="b">
         <v>1</v>
       </c>
-      <c r="F153" t="b">
-        <v>1</v>
-      </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" t="b">
-        <v>1</v>
-      </c>
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" t="b">
-        <v>1</v>
-      </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="b">
         <v>1</v>
       </c>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="b">
-        <v>1</v>
-      </c>
+      <c r="N153" t="inlineStr"/>
       <c r="O153" t="b">
         <v>1</v>
       </c>
@@ -6238,12 +6232,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>lambda</t>
+          <t>kms</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AWS Lambda</t>
+          <t>AWS Key Management Service</t>
         </is>
       </c>
       <c r="C154" t="b">
@@ -6290,38 +6284,64 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>launchwizard</t>
+          <t>lakeformation</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Launch Wizard</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+          <t>AWS Lake Formation</t>
+        </is>
+      </c>
+      <c r="C155" t="b">
+        <v>1</v>
+      </c>
+      <c r="D155" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" t="b">
+        <v>1</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="b">
+        <v>1</v>
+      </c>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
+      <c r="N155" t="b">
+        <v>1</v>
+      </c>
+      <c r="O155" t="b">
+        <v>1</v>
+      </c>
+      <c r="P155" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>lex</t>
+          <t>lambda</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Amazon Lex V2</t>
+          <t>AWS Lambda</t>
         </is>
       </c>
       <c r="C156" t="b">
@@ -6330,17 +6350,37 @@
       <c r="D156" t="b">
         <v>1</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="b">
+        <v>1</v>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="b">
+        <v>1</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="b">
+        <v>1</v>
+      </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
+      <c r="N156" t="b">
+        <v>1</v>
+      </c>
+      <c r="O156" t="b">
+        <v>1</v>
+      </c>
       <c r="P156" t="b">
         <v>1</v>
       </c>
@@ -6348,66 +6388,46 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>license-manager</t>
+          <t>launchwizard</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AWS License Manager</t>
-        </is>
-      </c>
-      <c r="C157" t="b">
-        <v>1</v>
-      </c>
-      <c r="D157" t="b">
-        <v>1</v>
-      </c>
-      <c r="E157" t="b">
-        <v>1</v>
-      </c>
-      <c r="F157" t="b">
-        <v>1</v>
-      </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="b">
-        <v>1</v>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="b">
-        <v>1</v>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
+          <t>Launch Wizard</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="b">
-        <v>1</v>
-      </c>
-      <c r="O157" t="b">
-        <v>1</v>
-      </c>
-      <c r="P157" t="b">
-        <v>1</v>
-      </c>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>lightsail</t>
+          <t>lex</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Amazon Lightsail</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
+          <t>Amazon Lex V2</t>
+        </is>
+      </c>
+      <c r="C158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D158" t="b">
+        <v>1</v>
+      </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
@@ -6419,17 +6439,19 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
+      <c r="P158" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>logs</t>
+          <t>license-manager</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Amazon CloudWatch Logs</t>
+          <t>AWS License Manager</t>
         </is>
       </c>
       <c r="C159" t="b">
@@ -6459,14 +6481,14 @@
       <c r="K159" t="b">
         <v>1</v>
       </c>
-      <c r="L159" t="b">
-        <v>1</v>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="b">
         <v>1</v>
       </c>
-      <c r="O159" t="inlineStr"/>
+      <c r="O159" t="b">
+        <v>1</v>
+      </c>
       <c r="P159" t="b">
         <v>1</v>
       </c>
@@ -6474,12 +6496,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>lookoutequipment</t>
+          <t>lightsail</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Amazon Lookout for Equipment</t>
+          <t>Amazon Lightsail</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6500,38 +6522,62 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>lookoutmetrics</t>
+          <t>logs</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Amazon Lookout for Metrics</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+          <t>Amazon CloudWatch Logs</t>
+        </is>
+      </c>
+      <c r="C161" t="b">
+        <v>1</v>
+      </c>
+      <c r="D161" t="b">
+        <v>1</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="b">
+        <v>1</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="b">
+        <v>1</v>
+      </c>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
+      <c r="N161" t="b">
+        <v>1</v>
+      </c>
       <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
+      <c r="P161" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>lookoutvision</t>
+          <t>lookoutequipment</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Amazon Lookout for Vision</t>
+          <t>Amazon Lookout for Equipment</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6552,12 +6598,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>machinelearning</t>
+          <t>lookoutmetrics</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Amazon Machine Learning</t>
+          <t>Amazon Lookout for Metrics</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6578,148 +6624,140 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>macie</t>
+          <t>lookoutvision</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Amazon Macie Classic</t>
-        </is>
-      </c>
-      <c r="C164" t="b">
-        <v>1</v>
-      </c>
-      <c r="D164" t="b">
-        <v>1</v>
-      </c>
-      <c r="E164" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon Lookout for Vision</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
-      <c r="G164" t="b">
-        <v>1</v>
-      </c>
-      <c r="H164" t="b">
-        <v>1</v>
-      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="b">
-        <v>1</v>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" t="b">
-        <v>1</v>
-      </c>
+      <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
-      <c r="P164" t="b">
-        <v>1</v>
-      </c>
+      <c r="P164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>macie2</t>
+          <t>machinelearning</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Amazon Macie</t>
-        </is>
-      </c>
-      <c r="C165" t="b">
-        <v>1</v>
-      </c>
-      <c r="D165" t="b">
-        <v>1</v>
-      </c>
-      <c r="E165" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon Machine Learning</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165" t="b">
-        <v>1</v>
-      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="b">
-        <v>1</v>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="b">
-        <v>1</v>
-      </c>
+      <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
-      <c r="P165" t="b">
-        <v>1</v>
-      </c>
+      <c r="P165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>managedblockchain</t>
+          <t>macie</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Amazon Managed Blockchain</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
+          <t>Amazon Macie Classic</t>
+        </is>
+      </c>
+      <c r="C166" t="b">
+        <v>1</v>
+      </c>
+      <c r="D166" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="b">
+        <v>1</v>
+      </c>
       <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr"/>
+      <c r="N166" t="b">
+        <v>1</v>
+      </c>
       <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
+      <c r="P166" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>marketplacecommerceanalytics</t>
+          <t>macie2</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>AWS Marketplace Commerce Analytics Service</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
+          <t>Amazon Macie</t>
+        </is>
+      </c>
+      <c r="C167" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167" t="b">
+        <v>1</v>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="b">
+        <v>1</v>
+      </c>
       <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
+      <c r="N167" t="b">
+        <v>1</v>
+      </c>
       <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
+      <c r="P167" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>mechanicalturk</t>
+          <t>managedblockchain</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Amazon Mechanical Turk</t>
+          <t>Amazon Managed Blockchain</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6740,100 +6778,64 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>mediaconnect</t>
+          <t>marketplacecommerceanalytics</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConnect</t>
-        </is>
-      </c>
-      <c r="C169" t="b">
-        <v>1</v>
-      </c>
-      <c r="D169" t="b">
-        <v>1</v>
-      </c>
-      <c r="E169" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Marketplace Commerce Analytics Service</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="b">
-        <v>1</v>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
-      <c r="O169" t="b">
-        <v>1</v>
-      </c>
-      <c r="P169" t="b">
-        <v>1</v>
-      </c>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>mediaconvert</t>
+          <t>mechanicalturk</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaConvert</t>
-        </is>
-      </c>
-      <c r="C170" t="b">
-        <v>1</v>
-      </c>
-      <c r="D170" t="b">
-        <v>1</v>
-      </c>
-      <c r="E170" t="b">
-        <v>1</v>
-      </c>
-      <c r="F170" t="b">
-        <v>1</v>
-      </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="b">
-        <v>1</v>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="b">
-        <v>1</v>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon Mechanical Turk</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
-      <c r="N170" t="b">
-        <v>1</v>
-      </c>
+      <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
-      <c r="P170" t="b">
-        <v>1</v>
-      </c>
+      <c r="P170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>medialive</t>
+          <t>mediaconnect</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaLive</t>
+          <t>AWS Elemental MediaConnect</t>
         </is>
       </c>
       <c r="C171" t="b">
@@ -6856,7 +6858,9 @@
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr"/>
+      <c r="O171" t="b">
+        <v>1</v>
+      </c>
       <c r="P171" t="b">
         <v>1</v>
       </c>
@@ -6864,64 +6868,98 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>mediapackage</t>
+          <t>mediaconvert</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaPackage</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+          <t>AWS Elemental MediaConvert</t>
+        </is>
+      </c>
+      <c r="C172" t="b">
+        <v>1</v>
+      </c>
+      <c r="D172" t="b">
+        <v>1</v>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="b">
+        <v>1</v>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="b">
+        <v>1</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="b">
+        <v>1</v>
+      </c>
       <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr"/>
+      <c r="N172" t="b">
+        <v>1</v>
+      </c>
       <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
+      <c r="P172" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>mediapackage-vod</t>
+          <t>medialive</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaPackage VOD</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
+          <t>AWS Elemental MediaLive</t>
+        </is>
+      </c>
+      <c r="C173" t="b">
+        <v>1</v>
+      </c>
+      <c r="D173" t="b">
+        <v>1</v>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="b">
+        <v>1</v>
+      </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
+      <c r="P173" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>mediastore</t>
+          <t>mediapackage</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaStore</t>
+          <t>AWS Elemental MediaPackage</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -6942,12 +6980,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>mediatailor</t>
+          <t>mediapackage-vod</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AWS Elemental MediaTailor</t>
+          <t>AWS Elemental MediaPackage VOD</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -6968,12 +7006,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>mgh</t>
+          <t>mediastore</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AWS Migration Hub</t>
+          <t>AWS Elemental MediaStore</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -6994,12 +7032,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>mobileanalytics</t>
+          <t>mediatailor</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Amazon Mobile Analytics</t>
+          <t>AWS Elemental MediaTailor</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7020,12 +7058,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>mobilehub</t>
+          <t>mgh</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AWS Mobile Hub</t>
+          <t>AWS Migration Hub</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7046,54 +7084,38 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>mobiletargeting</t>
+          <t>mobileanalytics</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Amazon Pinpoint</t>
-        </is>
-      </c>
-      <c r="C179" t="b">
-        <v>1</v>
-      </c>
-      <c r="D179" t="b">
-        <v>1</v>
-      </c>
-      <c r="E179" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon Mobile Analytics</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="b">
-        <v>1</v>
-      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="b">
-        <v>1</v>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
-      <c r="N179" t="b">
-        <v>1</v>
-      </c>
+      <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
-      <c r="P179" t="b">
-        <v>1</v>
-      </c>
+      <c r="P179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>monitron</t>
+          <t>mobilehub</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Amazon Monitron</t>
+          <t>AWS Mobile Hub</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7114,12 +7136,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>mq</t>
+          <t>mobiletargeting</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Amazon MQ</t>
+          <t>Amazon Pinpoint</t>
         </is>
       </c>
       <c r="C181" t="b">
@@ -7131,10 +7153,18 @@
       <c r="E181" t="b">
         <v>1</v>
       </c>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
+      <c r="F181" t="b">
+        <v>1</v>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="b">
+        <v>1</v>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="b">
@@ -7144,9 +7174,7 @@
       <c r="N181" t="b">
         <v>1</v>
       </c>
-      <c r="O181" t="b">
-        <v>1</v>
-      </c>
+      <c r="O181" t="inlineStr"/>
       <c r="P181" t="b">
         <v>1</v>
       </c>
@@ -7154,178 +7182,168 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>neptune-db</t>
+          <t>monitron</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Amazon Neptune</t>
-        </is>
-      </c>
-      <c r="C182" t="b">
-        <v>1</v>
-      </c>
-      <c r="D182" t="b">
-        <v>1</v>
-      </c>
-      <c r="E182" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon Monitron</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="b">
-        <v>1</v>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
-      <c r="O182" t="b">
-        <v>1</v>
-      </c>
-      <c r="P182" t="b">
-        <v>1</v>
-      </c>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>network-firewall</t>
+          <t>mq</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AWS Network Firewall</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
+          <t>Amazon MQ</t>
+        </is>
+      </c>
+      <c r="C183" t="b">
+        <v>1</v>
+      </c>
+      <c r="D183" t="b">
+        <v>1</v>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="b">
+        <v>1</v>
+      </c>
       <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
+      <c r="N183" t="b">
+        <v>1</v>
+      </c>
+      <c r="O183" t="b">
+        <v>1</v>
+      </c>
+      <c r="P183" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>networkmanager</t>
+          <t>neptune-db</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Network Manager</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+          <t>Amazon Neptune</t>
+        </is>
+      </c>
+      <c r="C184" t="b">
+        <v>1</v>
+      </c>
+      <c r="D184" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="b">
+        <v>1</v>
+      </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
+      <c r="O184" t="b">
+        <v>1</v>
+      </c>
+      <c r="P184" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>opsworks</t>
+          <t>network-firewall</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AWS OpsWorks</t>
-        </is>
-      </c>
-      <c r="C185" t="b">
-        <v>1</v>
-      </c>
-      <c r="D185" t="b">
-        <v>1</v>
-      </c>
-      <c r="E185" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Network Firewall</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="b">
-        <v>1</v>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
-      <c r="O185" t="b">
-        <v>1</v>
-      </c>
-      <c r="P185" t="b">
-        <v>1</v>
-      </c>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>opsworks-cm</t>
+          <t>networkmanager</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AWS OpsWorks Configuration Management</t>
-        </is>
-      </c>
-      <c r="C186" t="b">
-        <v>1</v>
-      </c>
-      <c r="D186" t="b">
-        <v>1</v>
-      </c>
-      <c r="E186" t="b">
-        <v>1</v>
-      </c>
+          <t>Network Manager</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="b">
-        <v>1</v>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
-      <c r="O186" t="b">
-        <v>1</v>
-      </c>
-      <c r="P186" t="b">
-        <v>1</v>
-      </c>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>organizations</t>
+          <t>opsworks</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AWS Organizations</t>
+          <t>AWS OpsWorks</t>
         </is>
       </c>
       <c r="C187" t="b">
@@ -7337,31 +7355,17 @@
       <c r="E187" t="b">
         <v>1</v>
       </c>
-      <c r="F187" t="b">
-        <v>1</v>
-      </c>
-      <c r="G187" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" t="b">
-        <v>1</v>
-      </c>
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" t="b">
-        <v>1</v>
-      </c>
-      <c r="K187" t="b">
-        <v>1</v>
-      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="b">
         <v>1</v>
       </c>
       <c r="M187" t="inlineStr"/>
-      <c r="N187" t="b">
-        <v>1</v>
-      </c>
+      <c r="N187" t="inlineStr"/>
       <c r="O187" t="b">
         <v>1</v>
       </c>
@@ -7372,12 +7376,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>outposts</t>
+          <t>opsworks-cm</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AWS Outposts</t>
+          <t>AWS OpsWorks Configuration Management</t>
         </is>
       </c>
       <c r="C188" t="b">
@@ -7399,10 +7403,10 @@
         <v>1</v>
       </c>
       <c r="M188" t="inlineStr"/>
-      <c r="N188" t="b">
-        <v>1</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="b">
+        <v>1</v>
+      </c>
       <c r="P188" t="b">
         <v>1</v>
       </c>
@@ -7410,38 +7414,64 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>panorama</t>
+          <t>organizations</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AWS Panorama</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+          <t>AWS Organizations</t>
+        </is>
+      </c>
+      <c r="C189" t="b">
+        <v>1</v>
+      </c>
+      <c r="D189" t="b">
+        <v>1</v>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" t="b">
+        <v>1</v>
+      </c>
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="b">
+        <v>1</v>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="b">
+        <v>1</v>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="b">
+        <v>1</v>
+      </c>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
+      <c r="N189" t="b">
+        <v>1</v>
+      </c>
+      <c r="O189" t="b">
+        <v>1</v>
+      </c>
+      <c r="P189" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>personalize</t>
+          <t>outposts</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Amazon Personalize</t>
+          <t>AWS Outposts</t>
         </is>
       </c>
       <c r="C190" t="b">
@@ -7463,10 +7493,10 @@
         <v>1</v>
       </c>
       <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
-      <c r="O190" t="b">
-        <v>1</v>
-      </c>
+      <c r="N190" t="b">
+        <v>1</v>
+      </c>
+      <c r="O190" t="inlineStr"/>
       <c r="P190" t="b">
         <v>1</v>
       </c>
@@ -7474,12 +7504,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>panorama</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AWS Performance Insights</t>
+          <t>AWS Panorama</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7500,12 +7530,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>polly</t>
+          <t>personalize</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Amazon Polly</t>
+          <t>Amazon Personalize</t>
         </is>
       </c>
       <c r="C192" t="b">
@@ -7517,31 +7547,17 @@
       <c r="E192" t="b">
         <v>1</v>
       </c>
-      <c r="F192" t="b">
-        <v>1</v>
-      </c>
-      <c r="G192" t="b">
-        <v>1</v>
-      </c>
-      <c r="H192" t="b">
-        <v>1</v>
-      </c>
-      <c r="I192" t="b">
-        <v>1</v>
-      </c>
-      <c r="J192" t="b">
-        <v>1</v>
-      </c>
-      <c r="K192" t="b">
-        <v>1</v>
-      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="b">
         <v>1</v>
       </c>
       <c r="M192" t="inlineStr"/>
-      <c r="N192" t="b">
-        <v>1</v>
-      </c>
+      <c r="N192" t="inlineStr"/>
       <c r="O192" t="b">
         <v>1</v>
       </c>
@@ -7552,12 +7568,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>pricing</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AWS Price List</t>
+          <t>AWS Performance Insights</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7578,38 +7594,64 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>profile</t>
+          <t>polly</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Amazon Connect Customer Profiles</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+          <t>Amazon Polly</t>
+        </is>
+      </c>
+      <c r="C194" t="b">
+        <v>1</v>
+      </c>
+      <c r="D194" t="b">
+        <v>1</v>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
+      </c>
+      <c r="F194" t="b">
+        <v>1</v>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" t="b">
+        <v>1</v>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="b">
+        <v>1</v>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="b">
+        <v>1</v>
+      </c>
       <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
+      <c r="N194" t="b">
+        <v>1</v>
+      </c>
+      <c r="O194" t="b">
+        <v>1</v>
+      </c>
+      <c r="P194" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>proton</t>
+          <t>pricing</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AWS Proton</t>
+          <t>AWS Price List</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7630,12 +7672,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>purchase-orders</t>
+          <t>profile</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AWS Purchase Orders Console</t>
+          <t>Amazon Connect Customer Profiles</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7656,118 +7698,100 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>qldb</t>
+          <t>proton</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Amazon QLDB</t>
-        </is>
-      </c>
-      <c r="C197" t="b">
-        <v>1</v>
-      </c>
-      <c r="D197" t="b">
-        <v>1</v>
-      </c>
-      <c r="E197" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Proton</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="b">
-        <v>1</v>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
-      <c r="P197" t="b">
-        <v>1</v>
-      </c>
+      <c r="P197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>quicksight</t>
+          <t>purchase-orders</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Amazon QuickSight</t>
-        </is>
-      </c>
-      <c r="C198" t="b">
-        <v>1</v>
-      </c>
-      <c r="D198" t="b">
-        <v>1</v>
-      </c>
-      <c r="E198" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Purchase Orders Console</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="b">
-        <v>1</v>
-      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="b">
-        <v>1</v>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
-      <c r="N198" t="b">
-        <v>1</v>
-      </c>
-      <c r="O198" t="b">
-        <v>1</v>
-      </c>
-      <c r="P198" t="b">
-        <v>1</v>
-      </c>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ram</t>
+          <t>qldb</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AWS Resource Access Manager</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
+          <t>Amazon QLDB</t>
+        </is>
+      </c>
+      <c r="C199" t="b">
+        <v>1</v>
+      </c>
+      <c r="D199" t="b">
+        <v>1</v>
+      </c>
+      <c r="E199" t="b">
+        <v>1</v>
+      </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="b">
+        <v>1</v>
+      </c>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
+      <c r="P199" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>rds</t>
+          <t>quicksight</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Amazon RDS</t>
+          <t>Amazon QuickSight</t>
         </is>
       </c>
       <c r="C200" t="b">
@@ -7779,24 +7803,16 @@
       <c r="E200" t="b">
         <v>1</v>
       </c>
-      <c r="F200" t="b">
-        <v>1</v>
-      </c>
+      <c r="F200" t="inlineStr"/>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200" t="b">
         <v>1</v>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="b">
-        <v>1</v>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="b">
         <v>1</v>
       </c>
@@ -7814,64 +7830,38 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>rds-data</t>
+          <t>ram</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Amazon RDS Data API</t>
-        </is>
-      </c>
-      <c r="C201" t="b">
-        <v>1</v>
-      </c>
-      <c r="D201" t="b">
-        <v>1</v>
-      </c>
-      <c r="E201" t="b">
-        <v>1</v>
-      </c>
-      <c r="F201" t="b">
-        <v>1</v>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="b">
-        <v>1</v>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="b">
-        <v>1</v>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Resource Access Manager</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
-      <c r="N201" t="b">
-        <v>1</v>
-      </c>
-      <c r="O201" t="b">
-        <v>1</v>
-      </c>
-      <c r="P201" t="b">
-        <v>1</v>
-      </c>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>rds-db</t>
+          <t>rds</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Amazon RDS IAM Authentication</t>
+          <t>Amazon RDS</t>
         </is>
       </c>
       <c r="C202" t="b">
@@ -7918,12 +7908,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>redshift</t>
+          <t>rds-data</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Amazon Redshift</t>
+          <t>Amazon RDS Data API</t>
         </is>
       </c>
       <c r="C203" t="b">
@@ -7970,38 +7960,64 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>redshift-data</t>
+          <t>rds-db</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Amazon Redshift Data API</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+          <t>Amazon RDS IAM Authentication</t>
+        </is>
+      </c>
+      <c r="C204" t="b">
+        <v>1</v>
+      </c>
+      <c r="D204" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
+      </c>
+      <c r="F204" t="b">
+        <v>1</v>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="b">
+        <v>1</v>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="b">
+        <v>1</v>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="b">
+        <v>1</v>
+      </c>
       <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
+      <c r="N204" t="b">
+        <v>1</v>
+      </c>
+      <c r="O204" t="b">
+        <v>1</v>
+      </c>
+      <c r="P204" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>rekognition</t>
+          <t>redshift</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Amazon Rekognition</t>
+          <t>Amazon Redshift</t>
         </is>
       </c>
       <c r="C205" t="b">
@@ -8048,12 +8064,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>resource-explorer</t>
+          <t>redshift-data</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AWS Tag Editor</t>
+          <t>Amazon Redshift Data API</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8074,12 +8090,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>resource-groups</t>
+          <t>rekognition</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>AWS Resource Groups</t>
+          <t>Amazon Rekognition</t>
         </is>
       </c>
       <c r="C207" t="b">
@@ -8091,15 +8107,31 @@
       <c r="E207" t="b">
         <v>1</v>
       </c>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="F207" t="b">
+        <v>1</v>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="b">
+        <v>1</v>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="b">
+        <v>1</v>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="b">
+        <v>1</v>
+      </c>
       <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
+      <c r="N207" t="b">
+        <v>1</v>
+      </c>
       <c r="O207" t="b">
         <v>1</v>
       </c>
@@ -8110,50 +8142,38 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>robomaker</t>
+          <t>resource-explorer</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>AWS RoboMaker</t>
-        </is>
-      </c>
-      <c r="C208" t="b">
-        <v>1</v>
-      </c>
-      <c r="D208" t="b">
-        <v>1</v>
-      </c>
-      <c r="E208" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Tag Editor</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="b">
-        <v>1</v>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr"/>
-      <c r="O208" t="b">
-        <v>1</v>
-      </c>
-      <c r="P208" t="b">
-        <v>1</v>
-      </c>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>route53</t>
+          <t>resource-groups</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Amazon Route 53</t>
+          <t>AWS Resource Groups</t>
         </is>
       </c>
       <c r="C209" t="b">
@@ -8165,31 +8185,15 @@
       <c r="E209" t="b">
         <v>1</v>
       </c>
-      <c r="F209" t="b">
-        <v>1</v>
-      </c>
-      <c r="G209" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" t="b">
-        <v>1</v>
-      </c>
-      <c r="I209" t="b">
-        <v>1</v>
-      </c>
-      <c r="J209" t="b">
-        <v>1</v>
-      </c>
-      <c r="K209" t="b">
-        <v>1</v>
-      </c>
-      <c r="L209" t="b">
-        <v>1</v>
-      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr"/>
-      <c r="N209" t="b">
-        <v>1</v>
-      </c>
+      <c r="N209" t="inlineStr"/>
       <c r="O209" t="b">
         <v>1</v>
       </c>
@@ -8200,12 +8204,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>route53domains</t>
+          <t>robomaker</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Amazon Route53 Domains</t>
+          <t>AWS RoboMaker</t>
         </is>
       </c>
       <c r="C210" t="b">
@@ -8217,31 +8221,17 @@
       <c r="E210" t="b">
         <v>1</v>
       </c>
-      <c r="F210" t="b">
-        <v>1</v>
-      </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="b">
-        <v>1</v>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="b">
-        <v>1</v>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="b">
         <v>1</v>
       </c>
       <c r="M210" t="inlineStr"/>
-      <c r="N210" t="b">
-        <v>1</v>
-      </c>
+      <c r="N210" t="inlineStr"/>
       <c r="O210" t="b">
         <v>1</v>
       </c>
@@ -8252,12 +8242,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>route53resolver</t>
+          <t>route53</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Amazon Route 53 Resolver</t>
+          <t>Amazon Route 53</t>
         </is>
       </c>
       <c r="C211" t="b">
@@ -8304,12 +8294,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>s3</t>
+          <t>route53domains</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Amazon S3</t>
+          <t>Amazon Route53 Domains</t>
         </is>
       </c>
       <c r="C212" t="b">
@@ -8356,38 +8346,64 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>s3-outposts</t>
+          <t>route53resolver</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Amazon S3 on Outposts</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+          <t>Amazon Route 53 Resolver</t>
+        </is>
+      </c>
+      <c r="C213" t="b">
+        <v>1</v>
+      </c>
+      <c r="D213" t="b">
+        <v>1</v>
+      </c>
+      <c r="E213" t="b">
+        <v>1</v>
+      </c>
+      <c r="F213" t="b">
+        <v>1</v>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="b">
+        <v>1</v>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="b">
+        <v>1</v>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="b">
+        <v>1</v>
+      </c>
       <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr"/>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
+      <c r="N213" t="b">
+        <v>1</v>
+      </c>
+      <c r="O213" t="b">
+        <v>1</v>
+      </c>
+      <c r="P213" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>sagemaker</t>
+          <t>s3</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Amazon SageMaker</t>
+          <t>Amazon S3</t>
         </is>
       </c>
       <c r="C214" t="b">
@@ -8434,12 +8450,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>savingsplans</t>
+          <t>s3-object-lambda</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>AWS Savings Plans</t>
+          <t>Amazon S3 Object Lambda</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8460,12 +8476,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>schemas</t>
+          <t>s3-outposts</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Amazon EventBridge Schemas</t>
+          <t>Amazon S3 on Outposts</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8486,12 +8502,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>sdb</t>
+          <t>sagemaker</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Amazon SimpleDB</t>
+          <t>Amazon SageMaker</t>
         </is>
       </c>
       <c r="C217" t="b">
@@ -8503,15 +8519,31 @@
       <c r="E217" t="b">
         <v>1</v>
       </c>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="F217" t="b">
+        <v>1</v>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="b">
+        <v>1</v>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="b">
+        <v>1</v>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="b">
+        <v>1</v>
+      </c>
       <c r="M217" t="inlineStr"/>
-      <c r="N217" t="inlineStr"/>
+      <c r="N217" t="b">
+        <v>1</v>
+      </c>
       <c r="O217" t="b">
         <v>1</v>
       </c>
@@ -8522,108 +8554,64 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>secretsmanager</t>
+          <t>savingsplans</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>AWS Secrets Manager</t>
-        </is>
-      </c>
-      <c r="C218" t="b">
-        <v>1</v>
-      </c>
-      <c r="D218" t="b">
-        <v>1</v>
-      </c>
-      <c r="E218" t="b">
-        <v>1</v>
-      </c>
-      <c r="F218" t="b">
-        <v>1</v>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="b">
-        <v>1</v>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="b">
-        <v>1</v>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Savings Plans</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr"/>
-      <c r="N218" t="b">
-        <v>1</v>
-      </c>
-      <c r="O218" t="b">
-        <v>1</v>
-      </c>
-      <c r="P218" t="b">
-        <v>1</v>
-      </c>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>securityhub</t>
+          <t>schemas</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>AWS Security Hub</t>
-        </is>
-      </c>
-      <c r="C219" t="b">
-        <v>1</v>
-      </c>
-      <c r="D219" t="b">
-        <v>1</v>
-      </c>
-      <c r="E219" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon EventBridge Schemas</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="b">
-        <v>1</v>
-      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="b">
-        <v>1</v>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="inlineStr"/>
-      <c r="N219" t="b">
-        <v>1</v>
-      </c>
-      <c r="O219" t="b">
-        <v>1</v>
-      </c>
-      <c r="P219" t="b">
-        <v>1</v>
-      </c>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>serverlessrepo</t>
+          <t>sdb</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>AWS Serverless Application Repository</t>
+          <t>Amazon SimpleDB</t>
         </is>
       </c>
       <c r="C220" t="b">
@@ -8635,31 +8623,15 @@
       <c r="E220" t="b">
         <v>1</v>
       </c>
-      <c r="F220" t="b">
-        <v>1</v>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="b">
-        <v>1</v>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="b">
-        <v>1</v>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="b">
-        <v>1</v>
-      </c>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="inlineStr"/>
-      <c r="N220" t="b">
-        <v>1</v>
-      </c>
+      <c r="N220" t="inlineStr"/>
       <c r="O220" t="b">
         <v>1</v>
       </c>
@@ -8670,12 +8642,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>servicecatalog</t>
+          <t>secretsmanager</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>AWS Service Catalog</t>
+          <t>AWS Secrets Manager</t>
         </is>
       </c>
       <c r="C221" t="b">
@@ -8722,89 +8694,141 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>servicediscovery</t>
+          <t>securityhub</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>AWS Cloud Map</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr"/>
+          <t>AWS Security Hub</t>
+        </is>
+      </c>
+      <c r="C222" t="b">
+        <v>1</v>
+      </c>
       <c r="D222" t="b">
         <v>1</v>
       </c>
       <c r="E222" t="b">
         <v>1</v>
       </c>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
+      <c r="F222" t="b">
+        <v>1</v>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="b">
+        <v>1</v>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="b">
         <v>1</v>
       </c>
       <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr"/>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
+      <c r="N222" t="b">
+        <v>1</v>
+      </c>
+      <c r="O222" t="b">
+        <v>1</v>
+      </c>
+      <c r="P222" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>servicequotas</t>
+          <t>serverlessrepo</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Service Quotas</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+          <t>AWS Serverless Application Repository</t>
+        </is>
+      </c>
+      <c r="C223" t="b">
+        <v>1</v>
+      </c>
+      <c r="D223" t="b">
+        <v>1</v>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
+      </c>
+      <c r="F223" t="b">
+        <v>1</v>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="b">
+        <v>1</v>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="b">
+        <v>1</v>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="b">
+        <v>1</v>
+      </c>
       <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr"/>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
+      <c r="N223" t="b">
+        <v>1</v>
+      </c>
+      <c r="O223" t="b">
+        <v>1</v>
+      </c>
+      <c r="P223" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ses</t>
+          <t>servicecatalog</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Amazon SES</t>
+          <t>AWS Service Catalog</t>
         </is>
       </c>
       <c r="C224" t="b">
         <v>1</v>
       </c>
-      <c r="D224" t="inlineStr"/>
+      <c r="D224" t="b">
+        <v>1</v>
+      </c>
       <c r="E224" t="b">
         <v>1</v>
       </c>
-      <c r="F224" t="inlineStr"/>
+      <c r="F224" t="b">
+        <v>1</v>
+      </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224" t="b">
         <v>1</v>
       </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="b">
+        <v>1</v>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
       <c r="L224" t="b">
         <v>1</v>
       </c>
@@ -8812,7 +8836,9 @@
       <c r="N224" t="b">
         <v>1</v>
       </c>
-      <c r="O224" t="inlineStr"/>
+      <c r="O224" t="b">
+        <v>1</v>
+      </c>
       <c r="P224" t="b">
         <v>1</v>
       </c>
@@ -8820,17 +8846,15 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>shield</t>
+          <t>servicediscovery</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>AWS Shield</t>
-        </is>
-      </c>
-      <c r="C225" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Cloud Map</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
       <c r="D225" t="b">
         <v>1</v>
       </c>
@@ -8838,12 +8862,8 @@
         <v>1</v>
       </c>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="b">
-        <v>1</v>
-      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
@@ -8851,25 +8871,19 @@
         <v>1</v>
       </c>
       <c r="M225" t="inlineStr"/>
-      <c r="N225" t="b">
-        <v>1</v>
-      </c>
-      <c r="O225" t="b">
-        <v>1</v>
-      </c>
-      <c r="P225" t="b">
-        <v>1</v>
-      </c>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>signer</t>
+          <t>servicequotas</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>AWS Signer</t>
+          <t>Service Quotas</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8890,20 +8904,18 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>sms</t>
+          <t>ses</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>AWS Server Migration Service</t>
+          <t>Amazon Simple Email Service v2</t>
         </is>
       </c>
       <c r="C227" t="b">
         <v>1</v>
       </c>
-      <c r="D227" t="b">
-        <v>1</v>
-      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="b">
         <v>1</v>
       </c>
@@ -8919,12 +8931,8 @@
       <c r="I227" t="b">
         <v>1</v>
       </c>
-      <c r="J227" t="b">
-        <v>1</v>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="b">
         <v>1</v>
       </c>
@@ -8932,9 +8940,7 @@
       <c r="N227" t="b">
         <v>1</v>
       </c>
-      <c r="O227" t="b">
-        <v>1</v>
-      </c>
+      <c r="O227" t="inlineStr"/>
       <c r="P227" t="b">
         <v>1</v>
       </c>
@@ -8942,12 +8948,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>sms-voice</t>
+          <t>shield</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Amazon Pinpoint SMS and Voice Service</t>
+          <t>AWS Shield</t>
         </is>
       </c>
       <c r="C228" t="b">
@@ -8969,12 +8975,16 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="b">
+        <v>1</v>
+      </c>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="b">
         <v>1</v>
       </c>
-      <c r="O228" t="inlineStr"/>
+      <c r="O228" t="b">
+        <v>1</v>
+      </c>
       <c r="P228" t="b">
         <v>1</v>
       </c>
@@ -8982,62 +8992,38 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>snowball</t>
+          <t>signer</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>AWS Snowball</t>
-        </is>
-      </c>
-      <c r="C229" t="b">
-        <v>1</v>
-      </c>
-      <c r="D229" t="b">
-        <v>1</v>
-      </c>
-      <c r="E229" t="b">
-        <v>1</v>
-      </c>
-      <c r="F229" t="b">
-        <v>1</v>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="b">
-        <v>1</v>
-      </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="b">
-        <v>1</v>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Signer</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr"/>
-      <c r="O229" t="b">
-        <v>1</v>
-      </c>
-      <c r="P229" t="b">
-        <v>1</v>
-      </c>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>sns</t>
+          <t>sms</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Amazon SNS</t>
+          <t>AWS Server Migration Service</t>
         </is>
       </c>
       <c r="C230" t="b">
@@ -9084,12 +9070,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>sqs</t>
+          <t>sms-voice</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Amazon SQS</t>
+          <t>Amazon Pinpoint SMS and Voice Service</t>
         </is>
       </c>
       <c r="C231" t="b">
@@ -9113,22 +9099,14 @@
       <c r="I231" t="b">
         <v>1</v>
       </c>
-      <c r="J231" t="b">
-        <v>1</v>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="b">
-        <v>1</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="b">
         <v>1</v>
       </c>
-      <c r="O231" t="b">
-        <v>1</v>
-      </c>
+      <c r="O231" t="inlineStr"/>
       <c r="P231" t="b">
         <v>1</v>
       </c>
@@ -9136,12 +9114,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ssm</t>
+          <t>snowball</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>AWS Systems Manager</t>
+          <t>AWS Snowball</t>
         </is>
       </c>
       <c r="C232" t="b">
@@ -9175,9 +9153,7 @@
         <v>1</v>
       </c>
       <c r="M232" t="inlineStr"/>
-      <c r="N232" t="b">
-        <v>1</v>
-      </c>
+      <c r="N232" t="inlineStr"/>
       <c r="O232" t="b">
         <v>1</v>
       </c>
@@ -9188,12 +9164,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ssmmessages</t>
+          <t>sns</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Amazon Session Manager Message Gateway Service</t>
+          <t>Amazon SNS</t>
         </is>
       </c>
       <c r="C233" t="b">
@@ -9240,68 +9216,116 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>sso</t>
+          <t>sqs</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>AWS SSO</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
+          <t>Amazon SQS</t>
+        </is>
+      </c>
+      <c r="C234" t="b">
+        <v>1</v>
+      </c>
+      <c r="D234" t="b">
+        <v>1</v>
+      </c>
       <c r="E234" t="b">
         <v>1</v>
       </c>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="F234" t="b">
+        <v>1</v>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="b">
+        <v>1</v>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="b">
+        <v>1</v>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="b">
+        <v>1</v>
+      </c>
       <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
+      <c r="N234" t="b">
+        <v>1</v>
+      </c>
+      <c r="O234" t="b">
+        <v>1</v>
+      </c>
+      <c r="P234" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>sso-directory</t>
+          <t>ssm</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>AWS SSO Directory</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
+          <t>AWS Systems Manager</t>
+        </is>
+      </c>
+      <c r="C235" t="b">
+        <v>1</v>
+      </c>
+      <c r="D235" t="b">
+        <v>1</v>
+      </c>
       <c r="E235" t="b">
         <v>1</v>
       </c>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="F235" t="b">
+        <v>1</v>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="b">
+        <v>1</v>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="b">
+        <v>1</v>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="b">
+        <v>1</v>
+      </c>
       <c r="M235" t="inlineStr"/>
-      <c r="N235" t="inlineStr"/>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
+      <c r="N235" t="b">
+        <v>1</v>
+      </c>
+      <c r="O235" t="b">
+        <v>1</v>
+      </c>
+      <c r="P235" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>ssmmessages</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>AWS Step Functions</t>
+          <t>Amazon Session Manager Message Gateway Service</t>
         </is>
       </c>
       <c r="C236" t="b">
@@ -9348,138 +9372,120 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>storagegateway</t>
+          <t>sso</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Amazon Storage Gateway</t>
-        </is>
-      </c>
-      <c r="C237" t="b">
-        <v>1</v>
-      </c>
-      <c r="D237" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS SSO</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
       <c r="E237" t="b">
         <v>1</v>
       </c>
-      <c r="F237" t="b">
-        <v>1</v>
-      </c>
+      <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="b">
-        <v>1</v>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="b">
-        <v>1</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr"/>
-      <c r="N237" t="b">
-        <v>1</v>
-      </c>
-      <c r="O237" t="b">
-        <v>1</v>
-      </c>
-      <c r="P237" t="b">
-        <v>1</v>
-      </c>
+      <c r="N237" t="inlineStr"/>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>sts</t>
+          <t>sso-directory</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>AWS Security Token Service</t>
-        </is>
-      </c>
-      <c r="C238" t="b">
-        <v>1</v>
-      </c>
-      <c r="D238" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS SSO Directory</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
       <c r="E238" t="b">
         <v>1</v>
       </c>
-      <c r="F238" t="b">
-        <v>1</v>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="b">
-        <v>1</v>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="b">
-        <v>1</v>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="b">
-        <v>1</v>
-      </c>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="inlineStr"/>
-      <c r="N238" t="b">
-        <v>1</v>
-      </c>
-      <c r="O238" t="b">
-        <v>1</v>
-      </c>
-      <c r="P238" t="b">
-        <v>1</v>
-      </c>
+      <c r="N238" t="inlineStr"/>
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>sumerian</t>
+          <t>states</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Amazon Sumerian</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+          <t>AWS Step Functions</t>
+        </is>
+      </c>
+      <c r="C239" t="b">
+        <v>1</v>
+      </c>
+      <c r="D239" t="b">
+        <v>1</v>
+      </c>
+      <c r="E239" t="b">
+        <v>1</v>
+      </c>
+      <c r="F239" t="b">
+        <v>1</v>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="b">
+        <v>1</v>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="b">
+        <v>1</v>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="b">
+        <v>1</v>
+      </c>
       <c r="M239" t="inlineStr"/>
-      <c r="N239" t="inlineStr"/>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
+      <c r="N239" t="b">
+        <v>1</v>
+      </c>
+      <c r="O239" t="b">
+        <v>1</v>
+      </c>
+      <c r="P239" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>storagegateway</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>AWS Support</t>
+          <t>Amazon Storage Gateway</t>
         </is>
       </c>
       <c r="C240" t="b">
@@ -9526,12 +9532,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>swf</t>
+          <t>sts</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Amazon Simple Workflow Service</t>
+          <t>AWS Security Token Service</t>
         </is>
       </c>
       <c r="C241" t="b">
@@ -9578,12 +9584,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>synthetics</t>
+          <t>sumerian</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Amazon CloudWatch Synthetics</t>
+          <t>Amazon Sumerian</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9604,38 +9610,64 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>tag</t>
+          <t>support</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Amazon Resource Group Tagging API</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+          <t>AWS Support</t>
+        </is>
+      </c>
+      <c r="C243" t="b">
+        <v>1</v>
+      </c>
+      <c r="D243" t="b">
+        <v>1</v>
+      </c>
+      <c r="E243" t="b">
+        <v>1</v>
+      </c>
+      <c r="F243" t="b">
+        <v>1</v>
+      </c>
+      <c r="G243" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" t="b">
+        <v>1</v>
+      </c>
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+      <c r="J243" t="b">
+        <v>1</v>
+      </c>
+      <c r="K243" t="b">
+        <v>1</v>
+      </c>
+      <c r="L243" t="b">
+        <v>1</v>
+      </c>
       <c r="M243" t="inlineStr"/>
-      <c r="N243" t="inlineStr"/>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
+      <c r="N243" t="b">
+        <v>1</v>
+      </c>
+      <c r="O243" t="b">
+        <v>1</v>
+      </c>
+      <c r="P243" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>textract</t>
+          <t>swf</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Amazon Textract</t>
+          <t>Amazon Simple Workflow Service</t>
         </is>
       </c>
       <c r="C244" t="b">
@@ -9647,17 +9679,31 @@
       <c r="E244" t="b">
         <v>1</v>
       </c>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="F244" t="b">
+        <v>1</v>
+      </c>
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" t="b">
+        <v>1</v>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" t="b">
+        <v>1</v>
+      </c>
+      <c r="K244" t="b">
+        <v>1</v>
+      </c>
       <c r="L244" t="b">
         <v>1</v>
       </c>
       <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr"/>
+      <c r="N244" t="b">
+        <v>1</v>
+      </c>
       <c r="O244" t="b">
         <v>1</v>
       </c>
@@ -9668,30 +9714,24 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>timestream</t>
+          <t>synthetics</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>AWS Timestream</t>
+          <t>Amazon CloudWatch Synthetics</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
-      <c r="D245" t="b">
-        <v>1</v>
-      </c>
-      <c r="E245" t="b">
-        <v>1</v>
-      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="b">
-        <v>1</v>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
@@ -9700,12 +9740,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>tiros</t>
+          <t>tag</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>AWS Tiros</t>
+          <t>Amazon Resource Group Tagging API</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9726,12 +9766,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>transcribe</t>
+          <t>textract</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Amazon Transcribe</t>
+          <t>Amazon Textract</t>
         </is>
       </c>
       <c r="C247" t="b">
@@ -9755,19 +9795,13 @@
       <c r="I247" t="b">
         <v>1</v>
       </c>
-      <c r="J247" t="b">
-        <v>1</v>
-      </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="b">
         <v>1</v>
       </c>
       <c r="M247" t="inlineStr"/>
-      <c r="N247" t="b">
-        <v>1</v>
-      </c>
+      <c r="N247" t="inlineStr"/>
       <c r="O247" t="b">
         <v>1</v>
       </c>
@@ -9778,17 +9812,15 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>transfer</t>
+          <t>timestream</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>AWS Transfer for SFTP</t>
-        </is>
-      </c>
-      <c r="C248" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Timestream</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
       <c r="D248" t="b">
         <v>1</v>
       </c>
@@ -9805,80 +9837,50 @@
         <v>1</v>
       </c>
       <c r="M248" t="inlineStr"/>
-      <c r="N248" t="b">
-        <v>1</v>
-      </c>
-      <c r="O248" t="b">
-        <v>1</v>
-      </c>
-      <c r="P248" t="b">
-        <v>1</v>
-      </c>
+      <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>translate</t>
+          <t>tiros</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Amazon Translate</t>
-        </is>
-      </c>
-      <c r="C249" t="b">
-        <v>1</v>
-      </c>
-      <c r="D249" t="b">
-        <v>1</v>
-      </c>
-      <c r="E249" t="b">
-        <v>1</v>
-      </c>
-      <c r="F249" t="b">
-        <v>1</v>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="b">
-        <v>1</v>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="b">
-        <v>1</v>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Tiros</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="inlineStr"/>
-      <c r="N249" t="b">
-        <v>1</v>
-      </c>
-      <c r="O249" t="b">
-        <v>1</v>
-      </c>
-      <c r="P249" t="b">
-        <v>1</v>
-      </c>
+      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>trustedadvisor</t>
+          <t>transcribe</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>AWS Trusted Advisor</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr"/>
+          <t>Amazon Transcribe</t>
+        </is>
+      </c>
+      <c r="C250" t="b">
+        <v>1</v>
+      </c>
       <c r="D250" t="b">
         <v>1</v>
       </c>
@@ -9903,23 +9905,29 @@
       <c r="K250" t="b">
         <v>1</v>
       </c>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="b">
+        <v>1</v>
+      </c>
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="b">
         <v>1</v>
       </c>
-      <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr"/>
+      <c r="O250" t="b">
+        <v>1</v>
+      </c>
+      <c r="P250" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>waf</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>AWS WAF</t>
+          <t>AWS Transfer for SFTP</t>
         </is>
       </c>
       <c r="C251" t="b">
@@ -9931,24 +9939,12 @@
       <c r="E251" t="b">
         <v>1</v>
       </c>
-      <c r="F251" t="b">
-        <v>1</v>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="b">
-        <v>1</v>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="b">
-        <v>1</v>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="b">
         <v>1</v>
       </c>
@@ -9966,12 +9962,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>waf-regional</t>
+          <t>translate</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>AWS WAF Regional</t>
+          <t>Amazon Translate</t>
         </is>
       </c>
       <c r="C252" t="b">
@@ -10018,17 +10014,15 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>wafv2</t>
+          <t>trustedadvisor</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>AWS WAF V2</t>
-        </is>
-      </c>
-      <c r="C253" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Trusted Advisor</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
       <c r="D253" t="b">
         <v>1</v>
       </c>
@@ -10053,81 +10047,127 @@
       <c r="K253" t="b">
         <v>1</v>
       </c>
-      <c r="L253" t="b">
-        <v>1</v>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="b">
         <v>1</v>
       </c>
-      <c r="O253" t="b">
-        <v>1</v>
-      </c>
-      <c r="P253" t="b">
-        <v>1</v>
-      </c>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>wam</t>
+          <t>waf</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Amazon WorkSpaces Application Manager</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+          <t>AWS WAF</t>
+        </is>
+      </c>
+      <c r="C254" t="b">
+        <v>1</v>
+      </c>
+      <c r="D254" t="b">
+        <v>1</v>
+      </c>
+      <c r="E254" t="b">
+        <v>1</v>
+      </c>
+      <c r="F254" t="b">
+        <v>1</v>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="b">
+        <v>1</v>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="b">
+        <v>1</v>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="b">
+        <v>1</v>
+      </c>
       <c r="M254" t="inlineStr"/>
-      <c r="N254" t="inlineStr"/>
-      <c r="O254" t="inlineStr"/>
-      <c r="P254" t="inlineStr"/>
+      <c r="N254" t="b">
+        <v>1</v>
+      </c>
+      <c r="O254" t="b">
+        <v>1</v>
+      </c>
+      <c r="P254" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>wellarchitected</t>
+          <t>waf-regional</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>AWS Well-Architected Tool</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr"/>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+          <t>AWS WAF Regional</t>
+        </is>
+      </c>
+      <c r="C255" t="b">
+        <v>1</v>
+      </c>
+      <c r="D255" t="b">
+        <v>1</v>
+      </c>
+      <c r="E255" t="b">
+        <v>1</v>
+      </c>
+      <c r="F255" t="b">
+        <v>1</v>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="b">
+        <v>1</v>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="b">
+        <v>1</v>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="b">
+        <v>1</v>
+      </c>
       <c r="M255" t="inlineStr"/>
-      <c r="N255" t="inlineStr"/>
-      <c r="O255" t="inlineStr"/>
-      <c r="P255" t="inlineStr"/>
+      <c r="N255" t="b">
+        <v>1</v>
+      </c>
+      <c r="O255" t="b">
+        <v>1</v>
+      </c>
+      <c r="P255" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>workdocs</t>
+          <t>wafv2</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Amazon WorkDocs</t>
+          <t>AWS WAF V2</t>
         </is>
       </c>
       <c r="C256" t="b">
@@ -10139,16 +10179,24 @@
       <c r="E256" t="b">
         <v>1</v>
       </c>
-      <c r="F256" t="inlineStr"/>
+      <c r="F256" t="b">
+        <v>1</v>
+      </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256" t="b">
         <v>1</v>
       </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="b">
+        <v>1</v>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
       <c r="L256" t="b">
         <v>1</v>
       </c>
@@ -10166,57 +10214,43 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>worklink</t>
+          <t>wam</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Amazon WorkLink</t>
-        </is>
-      </c>
-      <c r="C257" t="b">
-        <v>1</v>
-      </c>
-      <c r="D257" t="b">
-        <v>1</v>
-      </c>
-      <c r="E257" t="b">
-        <v>1</v>
-      </c>
+          <t>Amazon WorkSpaces Application Manager</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="b">
-        <v>1</v>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
-      <c r="P257" t="b">
-        <v>1</v>
-      </c>
+      <c r="P257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>workmail</t>
+          <t>wellarchitected</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Amazon WorkMail</t>
-        </is>
-      </c>
-      <c r="C258" t="b">
-        <v>1</v>
-      </c>
+          <t>AWS Well-Architected Tool</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
-      <c r="E258" t="b">
-        <v>1</v>
-      </c>
+      <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr"/>
@@ -10227,45 +10261,61 @@
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
-      <c r="P258" t="b">
-        <v>1</v>
-      </c>
+      <c r="P258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>workmailmessageflow</t>
+          <t>workdocs</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Amazon WorkMail Message Flow</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr"/>
-      <c r="E259" t="inlineStr"/>
+          <t>Amazon WorkDocs</t>
+        </is>
+      </c>
+      <c r="C259" t="b">
+        <v>1</v>
+      </c>
+      <c r="D259" t="b">
+        <v>1</v>
+      </c>
+      <c r="E259" t="b">
+        <v>1</v>
+      </c>
       <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="b">
+        <v>1</v>
+      </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="b">
+        <v>1</v>
+      </c>
       <c r="M259" t="inlineStr"/>
-      <c r="N259" t="inlineStr"/>
-      <c r="O259" t="inlineStr"/>
-      <c r="P259" t="inlineStr"/>
+      <c r="N259" t="b">
+        <v>1</v>
+      </c>
+      <c r="O259" t="b">
+        <v>1</v>
+      </c>
+      <c r="P259" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>workspaces</t>
+          <t>worklink</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Amazon WorkSpaces</t>
+          <t>Amazon WorkLink</t>
         </is>
       </c>
       <c r="C260" t="b">
@@ -10277,34 +10327,18 @@
       <c r="E260" t="b">
         <v>1</v>
       </c>
-      <c r="F260" t="b">
-        <v>1</v>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="b">
-        <v>1</v>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="b">
-        <v>1</v>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="b">
         <v>1</v>
       </c>
       <c r="M260" t="inlineStr"/>
-      <c r="N260" t="b">
-        <v>1</v>
-      </c>
-      <c r="O260" t="b">
-        <v>1</v>
-      </c>
+      <c r="N260" t="inlineStr"/>
+      <c r="O260" t="inlineStr"/>
       <c r="P260" t="b">
         <v>1</v>
       </c>
@@ -10312,20 +10346,18 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>xray</t>
+          <t>workmail</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>AWS X-Ray</t>
+          <t>Amazon WorkMail</t>
         </is>
       </c>
       <c r="C261" t="b">
         <v>1</v>
       </c>
-      <c r="D261" t="b">
-        <v>1</v>
-      </c>
+      <c r="D261" t="inlineStr"/>
       <c r="E261" t="b">
         <v>1</v>
       </c>
@@ -10335,16 +10367,10 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="b">
-        <v>1</v>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr"/>
-      <c r="N261" t="b">
-        <v>1</v>
-      </c>
-      <c r="O261" t="b">
-        <v>1</v>
-      </c>
+      <c r="N261" t="inlineStr"/>
+      <c r="O261" t="inlineStr"/>
       <c r="P261" t="b">
         <v>1</v>
       </c>
@@ -10352,10 +10378,14 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>healthlake</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr"/>
+          <t>workmailmessageflow</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Amazon WorkMail Message Flow</t>
+        </is>
+      </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr"/>
@@ -10365,15 +10395,105 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="b">
-        <v>1</v>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="inlineStr"/>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr"/>
     </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>workspaces</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Amazon WorkSpaces</t>
+        </is>
+      </c>
+      <c r="C263" t="b">
+        <v>1</v>
+      </c>
+      <c r="D263" t="b">
+        <v>1</v>
+      </c>
+      <c r="E263" t="b">
+        <v>1</v>
+      </c>
+      <c r="F263" t="b">
+        <v>1</v>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="b">
+        <v>1</v>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="b">
+        <v>1</v>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="b">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="b">
+        <v>1</v>
+      </c>
+      <c r="O263" t="b">
+        <v>1</v>
+      </c>
+      <c r="P263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>xray</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>AWS X-Ray</t>
+        </is>
+      </c>
+      <c r="C264" t="b">
+        <v>1</v>
+      </c>
+      <c r="D264" t="b">
+        <v>1</v>
+      </c>
+      <c r="E264" t="b">
+        <v>1</v>
+      </c>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="b">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="b">
+        <v>1</v>
+      </c>
+      <c r="O264" t="b">
+        <v>1</v>
+      </c>
+      <c r="P264" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/aws_allowlister/data/compliance_statuses.xlsx
+++ b/aws_allowlister/data/compliance_statuses.xlsx
@@ -702,20 +702,46 @@
           <t>AWS Certificate Manager Private Certificate Authority</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1064,7 +1090,9 @@
           <t>AWS App Mesh</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
@@ -1633,8 +1661,12 @@
       <c r="I32" t="b">
         <v>1</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
       <c r="L32" t="b">
         <v>1</v>
       </c>
@@ -1681,8 +1713,12 @@
       <c r="I33" t="b">
         <v>1</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
       <c r="L33" t="b">
         <v>1</v>
       </c>
@@ -1812,7 +1848,9 @@
           <t>AWS Managed Apache Cassandra Service</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
@@ -1825,7 +1863,9 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2601,8 +2641,12 @@
       <c r="I57" t="b">
         <v>1</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
       <c r="L57" t="b">
         <v>1</v>
       </c>
@@ -2733,8 +2777,12 @@
       <c r="I61" t="b">
         <v>1</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
       <c r="L61" t="b">
         <v>1</v>
       </c>
@@ -2781,8 +2829,12 @@
       <c r="I62" t="b">
         <v>1</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
       <c r="L62" t="b">
         <v>1</v>
       </c>
@@ -2829,8 +2881,12 @@
       <c r="I63" t="b">
         <v>1</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
       <c r="L63" t="b">
         <v>1</v>
       </c>
@@ -2917,10 +2973,18 @@
       <c r="E65" t="b">
         <v>1</v>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="b">
@@ -3092,7 +3156,9 @@
           <t>AWS Glue DataBrew</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
       <c r="D70" t="b">
         <v>1</v>
       </c>
@@ -4043,8 +4109,12 @@
       <c r="I95" t="b">
         <v>1</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="b">
@@ -5301,10 +5371,18 @@
       <c r="E128" t="b">
         <v>1</v>
       </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="b">
@@ -6080,7 +6158,9 @@
           <t>Amazon Kendra</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr"/>
+      <c r="C150" t="b">
+        <v>1</v>
+      </c>
       <c r="D150" t="b">
         <v>1</v>
       </c>
@@ -7165,8 +7245,12 @@
       <c r="I181" t="b">
         <v>1</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
       <c r="L181" t="b">
         <v>1</v>
       </c>
@@ -7356,7 +7440,9 @@
         <v>1</v>
       </c>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -8186,8 +8272,12 @@
         <v>1</v>
       </c>
       <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="G209" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" t="b">
+        <v>1</v>
+      </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
@@ -8723,8 +8813,12 @@
       <c r="I222" t="b">
         <v>1</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="b">
+        <v>1</v>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
       <c r="L222" t="b">
         <v>1</v>
       </c>
@@ -8854,7 +8948,9 @@
           <t>AWS Cloud Map</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr"/>
+      <c r="C225" t="b">
+        <v>1</v>
+      </c>
       <c r="D225" t="b">
         <v>1</v>
       </c>
@@ -8931,8 +9027,12 @@
       <c r="I227" t="b">
         <v>1</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="b">
+        <v>1</v>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
       <c r="L227" t="b">
         <v>1</v>
       </c>
@@ -9099,8 +9199,12 @@
       <c r="I231" t="b">
         <v>1</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="b">
+        <v>1</v>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
       <c r="L231" t="inlineStr"/>
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="b">
@@ -9795,8 +9899,12 @@
       <c r="I247" t="b">
         <v>1</v>
       </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="b">
+        <v>1</v>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
       <c r="L247" t="b">
         <v>1</v>
       </c>
@@ -9820,7 +9928,9 @@
           <t>AWS Timestream</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr"/>
+      <c r="C248" t="b">
+        <v>1</v>
+      </c>
       <c r="D248" t="b">
         <v>1</v>
       </c>

--- a/aws_allowlister/data/compliance_statuses.xlsx
+++ b/aws_allowlister/data/compliance_statuses.xlsx
@@ -3434,7 +3434,9 @@
           <t>Amazon Detective</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="b">
         <v>1</v>
